--- a/covid19_drdfm/data/example-output/NJ/df.xlsx
+++ b/covid19_drdfm/data/example-output/NJ/df.xlsx
@@ -447,22 +447,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Employment1</t>
+          <t>GDP</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Employment2</t>
+          <t>Prod</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>CPIU</t>
+          <t>UI</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>PCEC</t>
+          <t>UR</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <v>40909</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1911968455201832</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.4841269841269842</v>
       </c>
     </row>
     <row r="3">
@@ -488,16 +488,16 @@
         <v>40940</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8170711884503437</v>
+        <v>0.02441069095771728</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8258139200228848</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4804248097350872</v>
+        <v>0.2356667067581342</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9797476154831077</v>
+        <v>0.4841269841269842</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         <v>40969</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8135122768330407</v>
+        <v>0.02457229803726312</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8239012100173577</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4783596646895119</v>
+        <v>0.217974595828506</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9810227532710519</v>
+        <v>0.4920634920634921</v>
       </c>
     </row>
     <row r="5">
@@ -522,16 +522,16 @@
         <v>41000</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8018882440272991</v>
+        <v>0.02241540933307759</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8180161564203544</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4580164258916395</v>
+        <v>0.2250850463659947</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9802673354121212</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6">
@@ -539,16 +539,16 @@
         <v>41030</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8182644828456356</v>
+        <v>0.02375125806111058</v>
       </c>
       <c r="C6" t="n">
-        <v>0.819039970538338</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2823120937051792</v>
+        <v>0.1668024439703321</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9781946328218968</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7">
@@ -556,16 +556,16 @@
         <v>41061</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8137537407112719</v>
+        <v>0.02340989212617466</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8175601904981341</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3408982227867237</v>
+        <v>0.2330599268368115</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9782729285877159</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8">
@@ -573,16 +573,16 @@
         <v>41091</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8032999920192481</v>
+        <v>0.02497431580168536</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8205909698480336</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3934463727922193</v>
+        <v>0.3043481132152469</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9782685951174721</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9">
@@ -590,16 +590,16 @@
         <v>41122</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8069065484055066</v>
+        <v>0.02331947946313506</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8218528986159431</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6527359268372354</v>
+        <v>0.2238245420389663</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9766178983157136</v>
+        <v>0.4920634920634921</v>
       </c>
     </row>
     <row r="10">
@@ -607,16 +607,16 @@
         <v>41153</v>
       </c>
       <c r="B10" t="n">
-        <v>0.834591805387279</v>
+        <v>0.02348280799839463</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8220476470543482</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6040928049754837</v>
+        <v>0.1727651411809</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9791251766773968</v>
+        <v>0.4920634920634921</v>
       </c>
     </row>
     <row r="11">
@@ -624,16 +624,16 @@
         <v>41183</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8210965500458856</v>
+        <v>0.01955402017460505</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8210990580937662</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D11" t="n">
-        <v>0.506728251696605</v>
+        <v>0.2371748981574729</v>
       </c>
       <c r="E11" t="n">
-        <v>0.98396198687112</v>
+        <v>0.4841269841269842</v>
       </c>
     </row>
     <row r="12">
@@ -641,16 +641,16 @@
         <v>41214</v>
       </c>
       <c r="B12" t="n">
-        <v>0.8033629658599835</v>
+        <v>0.0215486248593313</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8212544385497698</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3006557725101743</v>
+        <v>0.3282050725162771</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9784922095456062</v>
+        <v>0.4841269841269842</v>
       </c>
     </row>
     <row r="13">
@@ -658,16 +658,16 @@
         <v>41244</v>
       </c>
       <c r="B13" t="n">
-        <v>0.8068337204551878</v>
+        <v>0.02126159246553339</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8244209083586208</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D13" t="n">
-        <v>0.37413804795302</v>
+        <v>0.2219575384293991</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9770136390526549</v>
+        <v>0.4761904761904761</v>
       </c>
     </row>
     <row r="14">
@@ -675,16 +675,16 @@
         <v>41275</v>
       </c>
       <c r="B14" t="n">
-        <v>0.8055543580226956</v>
+        <v>0.02695831060545701</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8223316824338748</v>
+        <v>0.6350563355895624</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4730736920152049</v>
+        <v>0.2889776751159809</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9824906505822639</v>
+        <v>0.4682539682539681</v>
       </c>
     </row>
     <row r="15">
@@ -692,16 +692,16 @@
         <v>41306</v>
       </c>
       <c r="B15" t="n">
-        <v>0.8095017709632395</v>
+        <v>0.02595608399771079</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8259306364023364</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6349860070635606</v>
+        <v>0.2217978934816421</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9789649499577149</v>
+        <v>0.4603174603174602</v>
       </c>
     </row>
     <row r="16">
@@ -709,16 +709,16 @@
         <v>41334</v>
       </c>
       <c r="B16" t="n">
-        <v>0.805262264353838</v>
+        <v>0.02863150302934812</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8204826442824038</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2471689513070562</v>
+        <v>0.2249353196811505</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9778175006322838</v>
+        <v>0.4523809523809524</v>
       </c>
     </row>
     <row r="17">
@@ -726,16 +726,16 @@
         <v>41365</v>
       </c>
       <c r="B17" t="n">
-        <v>0.8185903306715626</v>
+        <v>0.02199628319135574</v>
       </c>
       <c r="C17" t="n">
-        <v>0.822175410606488</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2813645162752761</v>
+        <v>0.1950495606160301</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9772029075462043</v>
+        <v>0.4444444444444445</v>
       </c>
     </row>
     <row r="18">
@@ -743,16 +743,16 @@
         <v>41395</v>
       </c>
       <c r="B18" t="n">
-        <v>0.815943793632123</v>
+        <v>0.02120631097913898</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8232958481094075</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3993518297214528</v>
+        <v>0.1785803099194213</v>
       </c>
       <c r="E18" t="n">
-        <v>0.978462438089242</v>
+        <v>0.4365079365079364</v>
       </c>
     </row>
     <row r="19">
@@ -760,16 +760,16 @@
         <v>41426</v>
       </c>
       <c r="B19" t="n">
-        <v>0.8112013334931283</v>
+        <v>0.02037991634652395</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8217901061473404</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4918638127890506</v>
+        <v>0.231455093427825</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9807746156791444</v>
+        <v>0.4206349206349206</v>
       </c>
     </row>
     <row r="20">
@@ -777,16 +777,16 @@
         <v>41456</v>
       </c>
       <c r="B20" t="n">
-        <v>0.8165747062094404</v>
+        <v>0.02258910935646654</v>
       </c>
       <c r="C20" t="n">
-        <v>0.819524705107271</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4719810427311055</v>
+        <v>0.3121298159672608</v>
       </c>
       <c r="E20" t="n">
-        <v>0.979262308224759</v>
+        <v>0.4126984126984127</v>
       </c>
     </row>
     <row r="21">
@@ -794,16 +794,16 @@
         <v>41487</v>
       </c>
       <c r="B21" t="n">
-        <v>0.8091941800468382</v>
+        <v>0.02242677103191798</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8244296392645107</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4921920362000497</v>
+        <v>0.2278127052190612</v>
       </c>
       <c r="E21" t="n">
-        <v>0.978809824789761</v>
+        <v>0.3968253968253967</v>
       </c>
     </row>
     <row r="22">
@@ -811,16 +811,16 @@
         <v>41518</v>
       </c>
       <c r="B22" t="n">
-        <v>0.8102815037840168</v>
+        <v>0.02305379341247639</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8220025398786427</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3976005690238599</v>
+        <v>0.1741457821427412</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9786423571171835</v>
+        <v>0.3809523809523809</v>
       </c>
     </row>
     <row r="23">
@@ -828,16 +828,16 @@
         <v>41548</v>
       </c>
       <c r="B23" t="n">
-        <v>0.7748893508307949</v>
+        <v>0.02351304838806188</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8234365294311478</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4050553748719518</v>
+        <v>0.2165170906942426</v>
       </c>
       <c r="E23" t="n">
-        <v>0.982760952384311</v>
+        <v>0.365079365079365</v>
       </c>
     </row>
     <row r="24">
@@ -845,16 +845,16 @@
         <v>41579</v>
       </c>
       <c r="B24" t="n">
-        <v>0.8412095355145293</v>
+        <v>0.02357818115469768</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8256241022260118</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4666731454969064</v>
+        <v>0.2798960860392694</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9812503954983279</v>
+        <v>0.3492063492063492</v>
       </c>
     </row>
     <row r="25">
@@ -862,16 +862,16 @@
         <v>41609</v>
       </c>
       <c r="B25" t="n">
-        <v>0.8177730833014433</v>
+        <v>0.02333644699035518</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8167674345972542</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D25" t="n">
-        <v>0.504271433281398</v>
+        <v>0.3087412585569813</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9796268144426162</v>
+        <v>0.3412698412698413</v>
       </c>
     </row>
     <row r="26">
@@ -879,16 +879,16 @@
         <v>41640</v>
       </c>
       <c r="B26" t="n">
-        <v>0.8203859482666936</v>
+        <v>0.02049810347067134</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8219631015294253</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.493934346505972</v>
+        <v>0.2455569546086435</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9777682868082346</v>
+        <v>0.3253968253968254</v>
       </c>
     </row>
     <row r="27">
@@ -896,16 +896,16 @@
         <v>41671</v>
       </c>
       <c r="B27" t="n">
-        <v>0.8063658967333401</v>
+        <v>0.0212164724406473</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8207960185887884</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4316850960443767</v>
+        <v>0.2668274224749897</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9765583916561276</v>
+        <v>0.3095238095238094</v>
       </c>
     </row>
     <row r="28">
@@ -913,16 +913,16 @@
         <v>41699</v>
       </c>
       <c r="B28" t="n">
-        <v>0.8254627173521412</v>
+        <v>0.02043804532445498</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8257300281421081</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4759716818008413</v>
+        <v>0.2134803346349087</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9818597384704605</v>
+        <v>0.3015873015873016</v>
       </c>
     </row>
     <row r="29">
@@ -930,16 +930,16 @@
         <v>41730</v>
       </c>
       <c r="B29" t="n">
-        <v>0.8076266774238325</v>
+        <v>0.02329243210333047</v>
       </c>
       <c r="C29" t="n">
-        <v>0.8270190966267184</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D29" t="n">
-        <v>0.467607911577312</v>
+        <v>0.1672042641149286</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9818450146574353</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="30">
@@ -947,16 +947,16 @@
         <v>41760</v>
       </c>
       <c r="B30" t="n">
-        <v>0.8126222115907127</v>
+        <v>0.02340591221460959</v>
       </c>
       <c r="C30" t="n">
-        <v>0.822667647186039</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4694354679379368</v>
+        <v>0.1896434983320205</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9813103476548442</v>
+        <v>0.2777777777777778</v>
       </c>
     </row>
     <row r="31">
@@ -964,16 +964,16 @@
         <v>41791</v>
       </c>
       <c r="B31" t="n">
-        <v>0.822080809866217</v>
+        <v>0.02372654948643055</v>
       </c>
       <c r="C31" t="n">
-        <v>0.8277647645364593</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4420601940130754</v>
+        <v>0.2259632069934967</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9787811040867067</v>
+        <v>0.2777777777777778</v>
       </c>
     </row>
     <row r="32">
@@ -981,16 +981,16 @@
         <v>41821</v>
       </c>
       <c r="B32" t="n">
-        <v>0.8123850160291054</v>
+        <v>0.02342049085217934</v>
       </c>
       <c r="C32" t="n">
-        <v>0.8242174934096156</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4328522352647602</v>
+        <v>0.323270107351689</v>
       </c>
       <c r="E32" t="n">
-        <v>0.981568512407801</v>
+        <v>0.2698412698412698</v>
       </c>
     </row>
     <row r="33">
@@ -998,16 +998,16 @@
         <v>41852</v>
       </c>
       <c r="B33" t="n">
-        <v>0.8116286777528561</v>
+        <v>0.02430958152624463</v>
       </c>
       <c r="C33" t="n">
-        <v>0.8217938869930206</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3723022077765162</v>
+        <v>0.2208402377113134</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9755787392253349</v>
+        <v>0.2698412698412698</v>
       </c>
     </row>
     <row r="34">
@@ -1015,16 +1015,16 @@
         <v>41883</v>
       </c>
       <c r="B34" t="n">
-        <v>0.8158018120719297</v>
+        <v>0.02409695213623895</v>
       </c>
       <c r="C34" t="n">
-        <v>0.8266302034985644</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3832166305801797</v>
+        <v>0.1623333137486769</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9791237022486354</v>
+        <v>0.2698412698412698</v>
       </c>
     </row>
     <row r="35">
@@ -1032,16 +1032,16 @@
         <v>41913</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8300547056264846</v>
+        <v>0.02365458423887975</v>
       </c>
       <c r="C35" t="n">
-        <v>0.824127956244755</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D35" t="n">
-        <v>0.3705152434098531</v>
+        <v>0.2260000911559502</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9777252114392785</v>
+        <v>0.2619047619047619</v>
       </c>
     </row>
     <row r="36">
@@ -1049,16 +1049,16 @@
         <v>41944</v>
       </c>
       <c r="B36" t="n">
-        <v>0.8061260573769912</v>
+        <v>0.02393504336403703</v>
       </c>
       <c r="C36" t="n">
-        <v>0.8257594276344505</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D36" t="n">
-        <v>0.2910385964014466</v>
+        <v>0.2686044304495113</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9784373590744389</v>
+        <v>0.2619047619047619</v>
       </c>
     </row>
     <row r="37">
@@ -1066,16 +1066,16 @@
         <v>41974</v>
       </c>
       <c r="B37" t="n">
-        <v>0.8144364776464362</v>
+        <v>0.0243547811205521</v>
       </c>
       <c r="C37" t="n">
-        <v>0.8254627742564683</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D37" t="n">
-        <v>0.2342588880723614</v>
+        <v>0.2685414018138217</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9778768331199639</v>
+        <v>0.253968253968254</v>
       </c>
     </row>
     <row r="38">
@@ -1083,16 +1083,16 @@
         <v>42005</v>
       </c>
       <c r="B38" t="n">
-        <v>0.8257177919739254</v>
+        <v>0.02796607894564143</v>
       </c>
       <c r="C38" t="n">
-        <v>0.8222752866023222</v>
+        <v>0.3000806161787212</v>
       </c>
       <c r="D38" t="n">
-        <v>0.07870096975326518</v>
+        <v>0.3016406514443118</v>
       </c>
       <c r="E38" t="n">
-        <v>0.973189625613409</v>
+        <v>0.246031746031746</v>
       </c>
     </row>
     <row r="39">
@@ -1100,16 +1100,16 @@
         <v>42036</v>
       </c>
       <c r="B39" t="n">
-        <v>0.8034061642763356</v>
+        <v>0.02450778307074274</v>
       </c>
       <c r="C39" t="n">
-        <v>0.8250360465027927</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4991270461619542</v>
+        <v>0.2410606318333706</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9781517738182761</v>
+        <v>0.246031746031746</v>
       </c>
     </row>
     <row r="40">
@@ -1117,16 +1117,16 @@
         <v>42064</v>
       </c>
       <c r="B40" t="n">
-        <v>0.8098794065368862</v>
+        <v>0.0243449764454269</v>
       </c>
       <c r="C40" t="n">
-        <v>0.8183126748240903</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5066174053952723</v>
+        <v>0.219937798337019</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9803666848320294</v>
+        <v>0.2380952380952381</v>
       </c>
     </row>
     <row r="41">
@@ -1134,16 +1134,16 @@
         <v>42095</v>
       </c>
       <c r="B41" t="n">
-        <v>0.8204703357769915</v>
+        <v>0.02390108497820157</v>
       </c>
       <c r="C41" t="n">
-        <v>0.8254374346256902</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4289422565245661</v>
+        <v>0.1422471906124042</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9809898533911975</v>
+        <v>0.2301587301587301</v>
       </c>
     </row>
     <row r="42">
@@ -1151,16 +1151,16 @@
         <v>42125</v>
       </c>
       <c r="B42" t="n">
-        <v>0.8177257676594207</v>
+        <v>0.02300636756052759</v>
       </c>
       <c r="C42" t="n">
-        <v>0.8277463401846614</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5349905266530876</v>
+        <v>0.1816570240494249</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9791221375105186</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="43">
@@ -1168,16 +1168,16 @@
         <v>42156</v>
       </c>
       <c r="B43" t="n">
-        <v>0.8069081625681082</v>
+        <v>0.02324809027590444</v>
       </c>
       <c r="C43" t="n">
-        <v>0.8206217231591978</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5101022712614719</v>
+        <v>0.2324409600918159</v>
       </c>
       <c r="E43" t="n">
-        <v>0.978997543988299</v>
+        <v>0.2063492063492063</v>
       </c>
     </row>
     <row r="44">
@@ -1185,16 +1185,16 @@
         <v>42186</v>
       </c>
       <c r="B44" t="n">
-        <v>0.8074361484750139</v>
+        <v>0.02328145036564735</v>
       </c>
       <c r="C44" t="n">
-        <v>0.825997886786185</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4545412938591608</v>
+        <v>0.3323851161207091</v>
       </c>
       <c r="E44" t="n">
-        <v>0.977651602238532</v>
+        <v>0.1904761904761904</v>
       </c>
     </row>
     <row r="45">
@@ -1202,16 +1202,16 @@
         <v>42217</v>
       </c>
       <c r="B45" t="n">
-        <v>0.8192830710681206</v>
+        <v>0.02372485748510504</v>
       </c>
       <c r="C45" t="n">
-        <v>0.8200613956704663</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D45" t="n">
-        <v>0.3796449961608567</v>
+        <v>0.2319154370084273</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9770182518838439</v>
+        <v>0.1825396825396826</v>
       </c>
     </row>
     <row r="46">
@@ -1219,16 +1219,16 @@
         <v>42248</v>
       </c>
       <c r="B46" t="n">
-        <v>0.7944628639571398</v>
+        <v>0.02454014016133857</v>
       </c>
       <c r="C46" t="n">
-        <v>0.8198242076397693</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2738033829246919</v>
+        <v>0.153913695478692</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9793377865484874</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="47">
@@ -1236,16 +1236,16 @@
         <v>42278</v>
       </c>
       <c r="B47" t="n">
-        <v>0.8217058068666531</v>
+        <v>0.02250746628680382</v>
       </c>
       <c r="C47" t="n">
-        <v>0.8269545291609484</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4264502145385787</v>
+        <v>0.2126269395714937</v>
       </c>
       <c r="E47" t="n">
-        <v>0.974613594179923</v>
+        <v>0.1587301587301587</v>
       </c>
     </row>
     <row r="48">
@@ -1253,16 +1253,16 @@
         <v>42309</v>
       </c>
       <c r="B48" t="n">
-        <v>0.8145543568902583</v>
+        <v>0.02209296665632425</v>
       </c>
       <c r="C48" t="n">
-        <v>0.8232721524409696</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D48" t="n">
-        <v>0.4361074937639563</v>
+        <v>0.2687506090024244</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9783873368083413</v>
+        <v>0.1507936507936508</v>
       </c>
     </row>
     <row r="49">
@@ -1270,16 +1270,16 @@
         <v>42339</v>
       </c>
       <c r="B49" t="n">
-        <v>0.8301987447499016</v>
+        <v>0.02287406608165498</v>
       </c>
       <c r="C49" t="n">
-        <v>0.8251024926703656</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D49" t="n">
-        <v>0.3291286649421136</v>
+        <v>0.2662249822571683</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9767338669535904</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="50">
@@ -1287,16 +1287,16 @@
         <v>42370</v>
       </c>
       <c r="B50" t="n">
-        <v>0.8252302269764712</v>
+        <v>0.0244250404917788</v>
       </c>
       <c r="C50" t="n">
-        <v>0.8190219459600729</v>
+        <v>0.2018198588070252</v>
       </c>
       <c r="D50" t="n">
-        <v>0.3582333302100829</v>
+        <v>0.3184408869944702</v>
       </c>
       <c r="E50" t="n">
-        <v>0.98167363084452</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="51">
@@ -1304,16 +1304,16 @@
         <v>42401</v>
       </c>
       <c r="B51" t="n">
-        <v>0.8168785545332913</v>
+        <v>0.02503848167653229</v>
       </c>
       <c r="C51" t="n">
-        <v>0.8227369194373043</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D51" t="n">
-        <v>0.317139331932879</v>
+        <v>0.2569252649788653</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9804857309116678</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="52">
@@ -1321,16 +1321,16 @@
         <v>42430</v>
       </c>
       <c r="B52" t="n">
-        <v>0.8166172624762037</v>
+        <v>0.02342073181379505</v>
       </c>
       <c r="C52" t="n">
-        <v>0.8244083425910558</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D52" t="n">
-        <v>0.527342817213182</v>
+        <v>0.2053465616116218</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9799677242166804</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="53">
@@ -1338,16 +1338,16 @@
         <v>42461</v>
       </c>
       <c r="B53" t="n">
-        <v>0.8019526135529373</v>
+        <v>0.02107607778327495</v>
       </c>
       <c r="C53" t="n">
-        <v>0.8218700422722833</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D53" t="n">
-        <v>0.5600276253743403</v>
+        <v>0.1651254496535879</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9843664993593824</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="54">
@@ -1355,16 +1355,16 @@
         <v>42491</v>
       </c>
       <c r="B54" t="n">
-        <v>0.8089540979698909</v>
+        <v>0.0220734200903285</v>
       </c>
       <c r="C54" t="n">
-        <v>0.8163254740842698</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D54" t="n">
-        <v>0.4911291353516724</v>
+        <v>0.2012741466457534</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9803337721967778</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="55">
@@ -1372,16 +1372,16 @@
         <v>42522</v>
       </c>
       <c r="B55" t="n">
-        <v>0.8100965821959163</v>
+        <v>0.02184253081872439</v>
       </c>
       <c r="C55" t="n">
-        <v>0.8241843065082501</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D55" t="n">
-        <v>0.5104932049111612</v>
+        <v>0.2149085079356341</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9790415223734227</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="56">
@@ -1389,16 +1389,16 @@
         <v>42552</v>
       </c>
       <c r="B56" t="n">
-        <v>0.8183967831948311</v>
+        <v>0.02317178753792105</v>
       </c>
       <c r="C56" t="n">
-        <v>0.8284285715748178</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D56" t="n">
-        <v>0.3560972505717873</v>
+        <v>0.320265247339612</v>
       </c>
       <c r="E56" t="n">
-        <v>0.981015281890797</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="57">
@@ -1406,16 +1406,16 @@
         <v>42583</v>
       </c>
       <c r="B57" t="n">
-        <v>0.8147146482922014</v>
+        <v>0.02257598387784264</v>
       </c>
       <c r="C57" t="n">
-        <v>0.8202700264204013</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D57" t="n">
-        <v>0.4669182200412889</v>
+        <v>0.2411763282346789</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9817396552186772</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="58">
@@ -1423,16 +1423,16 @@
         <v>42614</v>
       </c>
       <c r="B58" t="n">
-        <v>0.8063220843276583</v>
+        <v>0.02244465109932508</v>
       </c>
       <c r="C58" t="n">
-        <v>0.8258780750537105</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5033182562553414</v>
+        <v>0.1340478147783812</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9787856550618544</v>
+        <v>0.1349206349206349</v>
       </c>
     </row>
     <row r="59">
@@ -1440,16 +1440,16 @@
         <v>42644</v>
       </c>
       <c r="B59" t="n">
-        <v>0.8080478076572463</v>
+        <v>0.02211843315594467</v>
       </c>
       <c r="C59" t="n">
-        <v>0.8186995853766205</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D59" t="n">
-        <v>0.4901319569909405</v>
+        <v>0.245003235977308</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9801327453041018</v>
+        <v>0.1349206349206349</v>
       </c>
     </row>
     <row r="60">
@@ -1457,16 +1457,16 @@
         <v>42675</v>
       </c>
       <c r="B60" t="n">
-        <v>0.8124965697135286</v>
+        <v>0.02311925060081415</v>
       </c>
       <c r="C60" t="n">
-        <v>0.8191507907084582</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D60" t="n">
-        <v>0.4353786391004341</v>
+        <v>0.2758483921861984</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9760322058243911</v>
+        <v>0.126984126984127</v>
       </c>
     </row>
     <row r="61">
@@ -1474,16 +1474,16 @@
         <v>42705</v>
       </c>
       <c r="B61" t="n">
-        <v>0.8139368519997429</v>
+        <v>0.02232840888321599</v>
       </c>
       <c r="C61" t="n">
-        <v>0.8228900852335511</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D61" t="n">
-        <v>0.4986856164755484</v>
+        <v>0.2619245692529212</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9794266720231996</v>
+        <v>0.1190476190476191</v>
       </c>
     </row>
     <row r="62">
@@ -1491,16 +1491,16 @@
         <v>42736</v>
       </c>
       <c r="B62" t="n">
-        <v>0.8067712217436585</v>
+        <v>0.02031816380439698</v>
       </c>
       <c r="C62" t="n">
-        <v>0.8233304665654089</v>
+        <v>0.2813181882129138</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5700337409100718</v>
+        <v>0.3175184961229784</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9846549301094776</v>
+        <v>0.111111111111111</v>
       </c>
     </row>
     <row r="63">
@@ -1508,16 +1508,16 @@
         <v>42767</v>
       </c>
       <c r="B63" t="n">
-        <v>0.8182238647215494</v>
+        <v>0.0215150460956215</v>
       </c>
       <c r="C63" t="n">
-        <v>0.8223746599484877</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D63" t="n">
-        <v>0.454856946818932</v>
+        <v>0.2466374668383868</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9820560951350176</v>
+        <v>0.1031746031746031</v>
       </c>
     </row>
     <row r="64">
@@ -1525,16 +1525,16 @@
         <v>42795</v>
       </c>
       <c r="B64" t="n">
-        <v>0.8270024494154147</v>
+        <v>0.02265959917730039</v>
       </c>
       <c r="C64" t="n">
-        <v>0.8195031242404242</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D64" t="n">
-        <v>0.3578150554331625</v>
+        <v>0.2278641063222963</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9721032874061285</v>
+        <v>0.1031746031746031</v>
       </c>
     </row>
     <row r="65">
@@ -1542,16 +1542,16 @@
         <v>42826</v>
       </c>
       <c r="B65" t="n">
-        <v>0.813441790037817</v>
+        <v>0.02337489578110503</v>
       </c>
       <c r="C65" t="n">
-        <v>0.82201841942333</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D65" t="n">
-        <v>0.4379823293781138</v>
+        <v>0.1758356902574233</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9838459099350136</v>
+        <v>0.09523809523809529</v>
       </c>
     </row>
     <row r="66">
@@ -1559,16 +1559,16 @@
         <v>42856</v>
       </c>
       <c r="B66" t="n">
-        <v>0.8005818281819526</v>
+        <v>0.02472881579959407</v>
       </c>
       <c r="C66" t="n">
-        <v>0.8227593368173521</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D66" t="n">
-        <v>0.3433451879440547</v>
+        <v>0.1614180769134578</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9778158293211698</v>
+        <v>0.1031746031746031</v>
       </c>
     </row>
     <row r="67">
@@ -1576,16 +1576,16 @@
         <v>42887</v>
       </c>
       <c r="B67" t="n">
-        <v>0.8154578610815599</v>
+        <v>0.02404147823365536</v>
       </c>
       <c r="C67" t="n">
-        <v>0.8220724558148131</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D67" t="n">
-        <v>0.410549347079741</v>
+        <v>0.2303534552598898</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9800304991106373</v>
+        <v>0.1031746031746031</v>
       </c>
     </row>
     <row r="68">
@@ -1593,16 +1593,16 @@
         <v>42917</v>
       </c>
       <c r="B68" t="n">
-        <v>0.8155122669478176</v>
+        <v>0.02446079702589439</v>
       </c>
       <c r="C68" t="n">
-        <v>0.8215006893539329</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D68" t="n">
-        <v>0.3952852113377378</v>
+        <v>0.3409344971714884</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9765079631200255</v>
+        <v>0.1031746031746031</v>
       </c>
     </row>
     <row r="69">
@@ -1610,16 +1610,16 @@
         <v>42948</v>
       </c>
       <c r="B69" t="n">
-        <v>0.8046915430680994</v>
+        <v>0.02329305174551147</v>
       </c>
       <c r="C69" t="n">
-        <v>0.8196592654238672</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D69" t="n">
-        <v>0.5609150233935125</v>
+        <v>0.2282079272101981</v>
       </c>
       <c r="E69" t="n">
-        <v>0.979102434513735</v>
+        <v>0.111111111111111</v>
       </c>
     </row>
     <row r="70">
@@ -1627,16 +1627,16 @@
         <v>42979</v>
       </c>
       <c r="B70" t="n">
-        <v>0.8335959615893236</v>
+        <v>0.02253033266226177</v>
       </c>
       <c r="C70" t="n">
-        <v>0.818047234278343</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D70" t="n">
-        <v>0.6199503001817661</v>
+        <v>0.1332123393315109</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9794011733698422</v>
+        <v>0.111111111111111</v>
       </c>
     </row>
     <row r="71">
@@ -1644,16 +1644,16 @@
         <v>43009</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7839068529739605</v>
+        <v>0.02301450344361099</v>
       </c>
       <c r="C71" t="n">
-        <v>0.8201370254127243</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D71" t="n">
-        <v>0.4163665091399184</v>
+        <v>0.231314012462381</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9848340411545677</v>
+        <v>0.111111111111111</v>
       </c>
     </row>
     <row r="72">
@@ -1661,16 +1661,16 @@
         <v>43040</v>
       </c>
       <c r="B72" t="n">
-        <v>0.8136231473531693</v>
+        <v>0.02290998580897237</v>
       </c>
       <c r="C72" t="n">
-        <v>0.8231901576691838</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D72" t="n">
-        <v>0.5054531287823583</v>
+        <v>0.251041419588466</v>
       </c>
       <c r="E72" t="n">
-        <v>0.9771776535582584</v>
+        <v>0.111111111111111</v>
       </c>
     </row>
     <row r="73">
@@ -1678,16 +1678,16 @@
         <v>43070</v>
       </c>
       <c r="B73" t="n">
-        <v>0.8103141008001655</v>
+        <v>0.02302144729413909</v>
       </c>
       <c r="C73" t="n">
-        <v>0.819973832527095</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D73" t="n">
-        <v>0.4790655403947179</v>
+        <v>0.2990501149350653</v>
       </c>
       <c r="E73" t="n">
-        <v>0.980097022167201</v>
+        <v>0.1031746031746031</v>
       </c>
     </row>
     <row r="74">
@@ -1695,16 +1695,16 @@
         <v>43101</v>
       </c>
       <c r="B74" t="n">
-        <v>0.8246466423312068</v>
+        <v>0.02531834169774559</v>
       </c>
       <c r="C74" t="n">
-        <v>0.8201546828915486</v>
+        <v>0.5664585815888352</v>
       </c>
       <c r="D74" t="n">
-        <v>0.5579617292651852</v>
+        <v>0.3232668764009624</v>
       </c>
       <c r="E74" t="n">
-        <v>0.9868247112645042</v>
+        <v>0.09523809523809529</v>
       </c>
     </row>
     <row r="75">
@@ -1712,16 +1712,16 @@
         <v>43132</v>
       </c>
       <c r="B75" t="n">
-        <v>0.8330659605477557</v>
+        <v>0.02589162308838267</v>
       </c>
       <c r="C75" t="n">
-        <v>0.8290277501110732</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5115782435314746</v>
+        <v>0.2295014561504396</v>
       </c>
       <c r="E75" t="n">
-        <v>0.9827496788666857</v>
+        <v>0.08730158730158727</v>
       </c>
     </row>
     <row r="76">
@@ -1729,16 +1729,16 @@
         <v>43160</v>
       </c>
       <c r="B76" t="n">
-        <v>0.8075171382937057</v>
+        <v>0.02642035813428315</v>
       </c>
       <c r="C76" t="n">
-        <v>0.8228779466578857</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D76" t="n">
-        <v>0.4066752155894716</v>
+        <v>0.2137484003961345</v>
       </c>
       <c r="E76" t="n">
-        <v>0.9834844979235169</v>
+        <v>0.07936507936507936</v>
       </c>
     </row>
     <row r="77">
@@ -1746,16 +1746,16 @@
         <v>43191</v>
       </c>
       <c r="B77" t="n">
-        <v>0.8102497836714794</v>
+        <v>0.02323861015264088</v>
       </c>
       <c r="C77" t="n">
-        <v>0.8199781543527314</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D77" t="n">
-        <v>0.4864555798421895</v>
+        <v>0.1771234936562534</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9810957775417388</v>
+        <v>0.07936507936507936</v>
       </c>
     </row>
     <row r="78">
@@ -1763,16 +1763,16 @@
         <v>43221</v>
       </c>
       <c r="B78" t="n">
-        <v>0.8183984649936918</v>
+        <v>0.02326553036697558</v>
       </c>
       <c r="C78" t="n">
-        <v>0.8267750524003048</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D78" t="n">
-        <v>0.4990037387758953</v>
+        <v>0.1684616061007905</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9817591353187322</v>
+        <v>0.0714285714285714</v>
       </c>
     </row>
     <row r="79">
@@ -1780,16 +1780,16 @@
         <v>43252</v>
       </c>
       <c r="B79" t="n">
-        <v>0.8106440688255686</v>
+        <v>0.0236722477497492</v>
       </c>
       <c r="C79" t="n">
-        <v>0.8223965221927245</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D79" t="n">
-        <v>0.443536424040789</v>
+        <v>0.2295941104026852</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9784106657816277</v>
+        <v>0.06349206349206349</v>
       </c>
     </row>
     <row r="80">
@@ -1797,16 +1797,16 @@
         <v>43282</v>
       </c>
       <c r="B80" t="n">
-        <v>0.8198417357191273</v>
+        <v>0.02370284866743719</v>
       </c>
       <c r="C80" t="n">
-        <v>0.8166722053316008</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D80" t="n">
-        <v>0.4183183667114636</v>
+        <v>0.3285827859782575</v>
       </c>
       <c r="E80" t="n">
-        <v>0.979491595978044</v>
+        <v>0.06349206349206349</v>
       </c>
     </row>
     <row r="81">
@@ -1814,16 +1814,16 @@
         <v>43313</v>
       </c>
       <c r="B81" t="n">
-        <v>0.7853610245878195</v>
+        <v>0.02377421672384774</v>
       </c>
       <c r="C81" t="n">
-        <v>0.8238186390224658</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D81" t="n">
-        <v>0.4596972479140294</v>
+        <v>0.2444791071651198</v>
       </c>
       <c r="E81" t="n">
-        <v>0.975033970154923</v>
+        <v>0.05555555555555552</v>
       </c>
     </row>
     <row r="82">
@@ -1831,16 +1831,16 @@
         <v>43344</v>
       </c>
       <c r="B82" t="n">
-        <v>0.824129043682934</v>
+        <v>0.0230068222722365</v>
       </c>
       <c r="C82" t="n">
-        <v>0.8178823542293278</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D82" t="n">
-        <v>0.4715287686595205</v>
+        <v>0.1315329830954992</v>
       </c>
       <c r="E82" t="n">
-        <v>0.9826209712153378</v>
+        <v>0.04761904761904762</v>
       </c>
     </row>
     <row r="83">
@@ -1848,16 +1848,16 @@
         <v>43374</v>
       </c>
       <c r="B83" t="n">
-        <v>0.819552886792289</v>
+        <v>0.02317111564141764</v>
       </c>
       <c r="C83" t="n">
-        <v>0.820674477890516</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D83" t="n">
-        <v>0.4961603152117828</v>
+        <v>0.2218633747293259</v>
       </c>
       <c r="E83" t="n">
-        <v>0.9796210093737875</v>
+        <v>0.03968253968253971</v>
       </c>
     </row>
     <row r="84">
@@ -1865,16 +1865,16 @@
         <v>43405</v>
       </c>
       <c r="B84" t="n">
-        <v>0.8179852778074733</v>
+        <v>0.02387812491876539</v>
       </c>
       <c r="C84" t="n">
-        <v>0.8181339159172965</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D84" t="n">
-        <v>0.3415997683456339</v>
+        <v>0.2757624998925996</v>
       </c>
       <c r="E84" t="n">
-        <v>0.98166126228281</v>
+        <v>0.03174603174603174</v>
       </c>
     </row>
     <row r="85">
@@ -1882,16 +1882,16 @@
         <v>43435</v>
       </c>
       <c r="B85" t="n">
-        <v>0.8101511910185669</v>
+        <v>0.02398967064981767</v>
       </c>
       <c r="C85" t="n">
-        <v>0.8213242929372483</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D85" t="n">
-        <v>0.3600564217250121</v>
+        <v>0.2695122832742329</v>
       </c>
       <c r="E85" t="n">
-        <v>0.9806439707852279</v>
+        <v>0.03174603174603174</v>
       </c>
     </row>
     <row r="86">
@@ -1899,16 +1899,16 @@
         <v>43466</v>
       </c>
       <c r="B86" t="n">
-        <v>0.7973139801202804</v>
+        <v>0.02386254374232581</v>
       </c>
       <c r="C86" t="n">
-        <v>0.8259309936709726</v>
+        <v>0.5705114184071691</v>
       </c>
       <c r="D86" t="n">
-        <v>0.3647174717258458</v>
+        <v>0.325516057960281</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9786664338987189</v>
+        <v>0.02380952380952384</v>
       </c>
     </row>
     <row r="87">
@@ -1916,16 +1916,16 @@
         <v>43497</v>
       </c>
       <c r="B87" t="n">
-        <v>0.8196116871088801</v>
+        <v>0.02293865681170221</v>
       </c>
       <c r="C87" t="n">
-        <v>0.8138010898794865</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D87" t="n">
-        <v>0.5038792710841919</v>
+        <v>0.2541335743356857</v>
       </c>
       <c r="E87" t="n">
-        <v>0.9767325971937034</v>
+        <v>0.01587301587301587</v>
       </c>
     </row>
     <row r="88">
@@ -1933,16 +1933,16 @@
         <v>43525</v>
       </c>
       <c r="B88" t="n">
-        <v>0.8018329244093183</v>
+        <v>0.02229483679197751</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8229487460305345</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D88" t="n">
-        <v>0.5913563343395413</v>
+        <v>0.2139938920196396</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9793252182555847</v>
+        <v>0.007936507936507908</v>
       </c>
     </row>
     <row r="89">
@@ -1950,16 +1950,16 @@
         <v>43556</v>
       </c>
       <c r="B89" t="n">
-        <v>0.8045367245601444</v>
+        <v>0.02269068258951913</v>
       </c>
       <c r="C89" t="n">
-        <v>0.8234836547045727</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D89" t="n">
-        <v>0.5446092017417534</v>
+        <v>0.1459267060165291</v>
       </c>
       <c r="E89" t="n">
-        <v>0.9851240471169656</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -1967,16 +1967,16 @@
         <v>43586</v>
       </c>
       <c r="B90" t="n">
-        <v>0.8113212842232385</v>
+        <v>0.02399239115385106</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8170516540991243</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D90" t="n">
-        <v>0.4097728513891348</v>
+        <v>0.1927669163573888</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9785662060674547</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -1984,16 +1984,16 @@
         <v>43617</v>
       </c>
       <c r="B91" t="n">
-        <v>0.8186221843914154</v>
+        <v>0.02397166953845789</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8206962770596742</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D91" t="n">
-        <v>0.38649153885636</v>
+        <v>0.2380415520676574</v>
       </c>
       <c r="E91" t="n">
-        <v>0.9823941640804321</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -2001,16 +2001,16 @@
         <v>43647</v>
       </c>
       <c r="B92" t="n">
-        <v>0.8189620174086807</v>
+        <v>0.02435445508663313</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8175942660774596</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D92" t="n">
-        <v>0.4792752537025191</v>
+        <v>0.3461933350962308</v>
       </c>
       <c r="E92" t="n">
-        <v>0.9798030836781131</v>
+        <v>0.007936507936507908</v>
       </c>
     </row>
     <row r="93">
@@ -2018,16 +2018,16 @@
         <v>43678</v>
       </c>
       <c r="B93" t="n">
-        <v>0.8154828077055877</v>
+        <v>0.02494614792472317</v>
       </c>
       <c r="C93" t="n">
-        <v>0.8230507446757434</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D93" t="n">
-        <v>0.4312301472581591</v>
+        <v>0.2287144198236981</v>
       </c>
       <c r="E93" t="n">
-        <v>0.9781783786194277</v>
+        <v>0.01587301587301587</v>
       </c>
     </row>
     <row r="94">
@@ -2035,16 +2035,16 @@
         <v>43709</v>
       </c>
       <c r="B94" t="n">
-        <v>0.8241791552854203</v>
+        <v>0.02474980774356573</v>
       </c>
       <c r="C94" t="n">
-        <v>0.8221298771470258</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D94" t="n">
-        <v>0.4565441355295847</v>
+        <v>0.1246275674714001</v>
       </c>
       <c r="E94" t="n">
-        <v>0.9765585280189282</v>
+        <v>0.02380952380952384</v>
       </c>
     </row>
     <row r="95">
@@ -2052,16 +2052,16 @@
         <v>43739</v>
       </c>
       <c r="B95" t="n">
-        <v>0.8126319742663987</v>
+        <v>0.02236041738440882</v>
       </c>
       <c r="C95" t="n">
-        <v>0.819289810779421</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5099701165816628</v>
+        <v>0.224758367953367</v>
       </c>
       <c r="E95" t="n">
-        <v>0.9797858088696763</v>
+        <v>0.02380952380952384</v>
       </c>
     </row>
     <row r="96">
@@ -2069,16 +2069,16 @@
         <v>43770</v>
       </c>
       <c r="B96" t="n">
-        <v>0.8124937237162303</v>
+        <v>0.0232051733097731</v>
       </c>
       <c r="C96" t="n">
-        <v>0.8224031023543661</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D96" t="n">
-        <v>0.4682875810744797</v>
+        <v>0.2862089846457196</v>
       </c>
       <c r="E96" t="n">
-        <v>0.9750503690185857</v>
+        <v>0.03174603174603174</v>
       </c>
     </row>
     <row r="97">
@@ -2086,16 +2086,16 @@
         <v>43800</v>
       </c>
       <c r="B97" t="n">
-        <v>0.8132794396938479</v>
+        <v>0.02210727930674584</v>
       </c>
       <c r="C97" t="n">
-        <v>0.8183015343154202</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D97" t="n">
-        <v>0.4666626050633214</v>
+        <v>0.2864580112367164</v>
       </c>
       <c r="E97" t="n">
-        <v>0.9831072632591373</v>
+        <v>0.03174603174603174</v>
       </c>
     </row>
     <row r="98">
@@ -2103,16 +2103,16 @@
         <v>43831</v>
       </c>
       <c r="B98" t="n">
-        <v>0.7973372499006984</v>
+        <v>0.0210618399102242</v>
       </c>
       <c r="C98" t="n">
-        <v>0.8266883716369168</v>
+        <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>0.4562957516250217</v>
+        <v>0.3164775389782535</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9826493603113391</v>
+        <v>0.02380952380952384</v>
       </c>
     </row>
     <row r="99">
@@ -2120,16 +2120,16 @@
         <v>43862</v>
       </c>
       <c r="B99" t="n">
-        <v>0.8137453876417202</v>
+        <v>0.02146847850313144</v>
       </c>
       <c r="C99" t="n">
-        <v>0.8244621293926442</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D99" t="n">
-        <v>0.439059555797408</v>
+        <v>0.2465466543451684</v>
       </c>
       <c r="E99" t="n">
-        <v>0.98124669381788</v>
+        <v>0.02380952380952384</v>
       </c>
     </row>
     <row r="100">
@@ -2137,16 +2137,16 @@
         <v>43891</v>
       </c>
       <c r="B100" t="n">
-        <v>0.6969692592429803</v>
+        <v>0.02330823089298248</v>
       </c>
       <c r="C100" t="n">
-        <v>0.762894256021043</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D100" t="n">
-        <v>0.2262743642876197</v>
+        <v>0.2241515657039103</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9717266243966615</v>
+        <v>0.007936507936507908</v>
       </c>
     </row>
     <row r="101">
@@ -2154,16 +2154,16 @@
         <v>43922</v>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>0.006305210127425499</v>
       </c>
       <c r="C101" t="n">
-        <v>0.01182346175643989</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>0.956664595749088</v>
+        <v>0.9761904761904761</v>
       </c>
     </row>
     <row r="102">
@@ -2171,16 +2171,16 @@
         <v>43952</v>
       </c>
       <c r="B102" t="n">
-        <v>0.9569070071883189</v>
+        <v>0.002119439593425882</v>
       </c>
       <c r="C102" t="n">
-        <v>0.9241151740788696</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D102" t="n">
-        <v>0.3522132825430839</v>
+        <v>0.2127585584158884</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9795497106727131</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -2188,16 +2188,16 @@
         <v>43983</v>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>1</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D103" t="n">
-        <v>0.6138188260274466</v>
+        <v>0.1925014385925214</v>
       </c>
       <c r="E103" t="n">
-        <v>0.9824998107526026</v>
+        <v>0.8968253968253967</v>
       </c>
     </row>
     <row r="104">
@@ -2205,16 +2205,16 @@
         <v>44013</v>
       </c>
       <c r="B104" t="n">
-        <v>0.8619915693855537</v>
+        <v>0.03869967222777397</v>
       </c>
       <c r="C104" t="n">
-        <v>0.8719716723206929</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D104" t="n">
-        <v>0.6223428498919439</v>
+        <v>0.2007733014928663</v>
       </c>
       <c r="E104" t="n">
-        <v>0.9876516371695102</v>
+        <v>0.8809523809523809</v>
       </c>
     </row>
     <row r="105">
@@ -2222,16 +2222,16 @@
         <v>44044</v>
       </c>
       <c r="B105" t="n">
-        <v>0.9301592416903756</v>
+        <v>0.0380837264682761</v>
       </c>
       <c r="C105" t="n">
-        <v>0.8827494139037064</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D105" t="n">
-        <v>0.568632768710604</v>
+        <v>0.1667169162619197</v>
       </c>
       <c r="E105" t="n">
-        <v>0.9869906892720072</v>
+        <v>0.7619047619047619</v>
       </c>
     </row>
     <row r="106">
@@ -2239,16 +2239,16 @@
         <v>44075</v>
       </c>
       <c r="B106" t="n">
-        <v>0.8220104815944788</v>
+        <v>0.03823937458079001</v>
       </c>
       <c r="C106" t="n">
-        <v>0.8519897923760563</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D106" t="n">
-        <v>0.4905468607131919</v>
+        <v>0.1730885456097704</v>
       </c>
       <c r="E106" t="n">
-        <v>0.9811618247421615</v>
+        <v>0.4047619047619048</v>
       </c>
     </row>
     <row r="107">
@@ -2256,16 +2256,16 @@
         <v>44105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.8854473545587337</v>
+        <v>0.02568822326874336</v>
       </c>
       <c r="C107" t="n">
-        <v>0.8424105555477105</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D107" t="n">
-        <v>0.4091997879257664</v>
+        <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>0.9753990616390603</v>
+        <v>0.3412698412698413</v>
       </c>
     </row>
     <row r="108">
@@ -2273,16 +2273,16 @@
         <v>44136</v>
       </c>
       <c r="B108" t="n">
-        <v>0.809529527014256</v>
+        <v>0.02575203773907354</v>
       </c>
       <c r="C108" t="n">
-        <v>0.8247803516057473</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D108" t="n">
-        <v>0.4466437111373774</v>
+        <v>0.1266979978598054</v>
       </c>
       <c r="E108" t="n">
-        <v>0.9751453397140232</v>
+        <v>0.3412698412698413</v>
       </c>
     </row>
     <row r="109">
@@ -2290,16 +2290,16 @@
         <v>44166</v>
       </c>
       <c r="B109" t="n">
-        <v>0.8080962408847309</v>
+        <v>0.02344692210609836</v>
       </c>
       <c r="C109" t="n">
-        <v>0.804278529958791</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D109" t="n">
-        <v>0.5321018246348093</v>
+        <v>0.2064050817549574</v>
       </c>
       <c r="E109" t="n">
-        <v>0.9875337282372185</v>
+        <v>0.3333333333333334</v>
       </c>
     </row>
     <row r="110">
@@ -2307,16 +2307,16 @@
         <v>44197</v>
       </c>
       <c r="B110" t="n">
-        <v>0.8037985530107958</v>
+        <v>0.02507400549776299</v>
       </c>
       <c r="C110" t="n">
-        <v>0.8336290661528916</v>
+        <v>0.2757236508672864</v>
       </c>
       <c r="D110" t="n">
-        <v>0.4943928131909315</v>
+        <v>0.2238917705120757</v>
       </c>
       <c r="E110" t="n">
-        <v>0.9869867133354615</v>
+        <v>0.3253968253968254</v>
       </c>
     </row>
     <row r="111">
@@ -2324,16 +2324,16 @@
         <v>44228</v>
       </c>
       <c r="B111" t="n">
-        <v>0.8186046173234472</v>
+        <v>0.02531050368569593</v>
       </c>
       <c r="C111" t="n">
-        <v>0.8366655330876169</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D111" t="n">
-        <v>0.5855552089591999</v>
+        <v>0.2052862009961516</v>
       </c>
       <c r="E111" t="n">
-        <v>0.9809566549164035</v>
+        <v>0.3174603174603174</v>
       </c>
     </row>
     <row r="112">
@@ -2341,16 +2341,16 @@
         <v>44256</v>
       </c>
       <c r="B112" t="n">
-        <v>0.8259506443671929</v>
+        <v>0.02386127752539518</v>
       </c>
       <c r="C112" t="n">
-        <v>0.8445415267298729</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D112" t="n">
-        <v>0.6801679785195373</v>
+        <v>0.1965067785466114</v>
       </c>
       <c r="E112" t="n">
-        <v>0.991288101526027</v>
+        <v>0.2936507936507937</v>
       </c>
     </row>
     <row r="113">
@@ -2358,16 +2358,16 @@
         <v>44287</v>
       </c>
       <c r="B113" t="n">
-        <v>0.8215175625321907</v>
+        <v>0.02284735377333824</v>
       </c>
       <c r="C113" t="n">
-        <v>0.8254862688070219</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D113" t="n">
-        <v>0.681290936005489</v>
+        <v>0.2328594903345652</v>
       </c>
       <c r="E113" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.3015873015873016</v>
       </c>
     </row>
     <row r="114">
@@ -2375,16 +2375,16 @@
         <v>44317</v>
       </c>
       <c r="B114" t="n">
-        <v>0.8177091421539534</v>
+        <v>0.02296360442490924</v>
       </c>
       <c r="C114" t="n">
-        <v>0.832893679041615</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D114" t="n">
-        <v>0.7097890436050871</v>
+        <v>0.2347850900177701</v>
       </c>
       <c r="E114" t="n">
-        <v>0.9953177368131433</v>
+        <v>0.2698412698412698</v>
       </c>
     </row>
     <row r="115">
@@ -2392,16 +2392,16 @@
         <v>44348</v>
       </c>
       <c r="B115" t="n">
-        <v>0.8139240932155383</v>
+        <v>0.0226833619287039</v>
       </c>
       <c r="C115" t="n">
-        <v>0.8407928447358934</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D115" t="n">
-        <v>0.7918698206865462</v>
+        <v>0.2481618958261901</v>
       </c>
       <c r="E115" t="n">
-        <v>0.9938378403237628</v>
+        <v>0.3095238095238094</v>
       </c>
     </row>
     <row r="116">
@@ -2409,16 +2409,16 @@
         <v>44378</v>
       </c>
       <c r="B116" t="n">
-        <v>0.8447262678280361</v>
+        <v>0.02521953139828374</v>
       </c>
       <c r="C116" t="n">
-        <v>0.8435193384603674</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D116" t="n">
-        <v>0.5933676549433829</v>
+        <v>0.296749514838863</v>
       </c>
       <c r="E116" t="n">
-        <v>0.9902418238171297</v>
+        <v>0.2698412698412698</v>
       </c>
     </row>
     <row r="117">
@@ -2426,16 +2426,16 @@
         <v>44409</v>
       </c>
       <c r="B117" t="n">
-        <v>0.8216318148412766</v>
+        <v>0.02551253900353373</v>
       </c>
       <c r="C117" t="n">
-        <v>0.8394124451332354</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D117" t="n">
-        <v>0.5369842896455852</v>
+        <v>0.2193570742222242</v>
       </c>
       <c r="E117" t="n">
-        <v>0.9875954422895242</v>
+        <v>0.2619047619047619</v>
       </c>
     </row>
     <row r="118">
@@ -2443,16 +2443,16 @@
         <v>44440</v>
       </c>
       <c r="B118" t="n">
-        <v>0.829324685465715</v>
+        <v>0.02591523101454341</v>
       </c>
       <c r="C118" t="n">
-        <v>0.8353603053475847</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D118" t="n">
-        <v>0.5733056891296506</v>
+        <v>0.1481762015006003</v>
       </c>
       <c r="E118" t="n">
-        <v>0.9826403914483204</v>
+        <v>0.2063492063492063</v>
       </c>
     </row>
     <row r="119">
@@ -2460,16 +2460,16 @@
         <v>44470</v>
       </c>
       <c r="B119" t="n">
-        <v>0.8248883981973458</v>
+        <v>0.02596383956261531</v>
       </c>
       <c r="C119" t="n">
-        <v>0.8435751480102291</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D119" t="n">
-        <v>0.7869501147721993</v>
+        <v>0.1723084383188471</v>
       </c>
       <c r="E119" t="n">
-        <v>0.990822126533077</v>
+        <v>0.1825396825396826</v>
       </c>
     </row>
     <row r="120">
@@ -2477,16 +2477,16 @@
         <v>44501</v>
       </c>
       <c r="B120" t="n">
-        <v>0.8454799427581161</v>
+        <v>0.02567216209947895</v>
       </c>
       <c r="C120" t="n">
-        <v>0.8372741196385735</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D120" t="n">
-        <v>0.7086646182002438</v>
+        <v>0.219887020457074</v>
       </c>
       <c r="E120" t="n">
-        <v>0.9952808646827681</v>
+        <v>0.1507936507936508</v>
       </c>
     </row>
     <row r="121">
@@ -2494,16 +2494,16 @@
         <v>44531</v>
       </c>
       <c r="B121" t="n">
-        <v>0.8253004314759759</v>
+        <v>0.02598643745886943</v>
       </c>
       <c r="C121" t="n">
-        <v>0.8355296793252621</v>
+        <v>0.2946441955268063</v>
       </c>
       <c r="D121" t="n">
-        <v>0.6505070675988471</v>
+        <v>0.2174676615797774</v>
       </c>
       <c r="E121" t="n">
-        <v>0.9964095594698834</v>
+        <v>0.1507936507936508</v>
       </c>
     </row>
     <row r="122">
@@ -2511,16 +2511,16 @@
         <v>44562</v>
       </c>
       <c r="B122" t="n">
-        <v>0.8417655800512969</v>
+        <v>0.02221295955368375</v>
       </c>
       <c r="C122" t="n">
-        <v>0.8279498252863896</v>
+        <v>0</v>
       </c>
       <c r="D122" t="n">
-        <v>0.6833060359507753</v>
+        <v>0.2991745831442723</v>
       </c>
       <c r="E122" t="n">
-        <v>0.9934873959452977</v>
+        <v>0.1507936507936508</v>
       </c>
     </row>
     <row r="123">
@@ -2528,16 +2528,16 @@
         <v>44593</v>
       </c>
       <c r="B123" t="n">
-        <v>0.8225231991975527</v>
+        <v>0.02184622290024277</v>
       </c>
       <c r="C123" t="n">
-        <v>0.8476052779413291</v>
+        <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>0.7548506731960245</v>
+        <v>0.2202961136213251</v>
       </c>
       <c r="E123" t="n">
-        <v>0.9891751212416464</v>
+        <v>0.111111111111111</v>
       </c>
     </row>
     <row r="124">
@@ -2545,16 +2545,16 @@
         <v>44621</v>
       </c>
       <c r="B124" t="n">
-        <v>0.8314178054745589</v>
+        <v>0.01988648578732452</v>
       </c>
       <c r="C124" t="n">
-        <v>0.8296529253655485</v>
+        <v>0</v>
       </c>
       <c r="D124" t="n">
-        <v>0.9618970566512602</v>
+        <v>0.2130482602121777</v>
       </c>
       <c r="E124" t="n">
-        <v>0.9891880507522977</v>
+        <v>0.07936507936507936</v>
       </c>
     </row>
     <row r="125">
@@ -2562,16 +2562,16 @@
         <v>44652</v>
       </c>
       <c r="B125" t="n">
-        <v>0.7954831318683658</v>
+        <v>0.02567565167228689</v>
       </c>
       <c r="C125" t="n">
-        <v>0.8238175672650873</v>
+        <v>0</v>
       </c>
       <c r="D125" t="n">
-        <v>0.5362716851339961</v>
+        <v>0.1850880366943525</v>
       </c>
       <c r="E125" t="n">
-        <v>0.9868666973528365</v>
+        <v>0.0714285714285714</v>
       </c>
     </row>
     <row r="126">
@@ -2579,16 +2579,16 @@
         <v>44682</v>
       </c>
       <c r="B126" t="n">
-        <v>0.8174440166948352</v>
+        <v>0.02341950463146223</v>
       </c>
       <c r="C126" t="n">
-        <v>0.8277797188483189</v>
+        <v>0</v>
       </c>
       <c r="D126" t="n">
-        <v>0.8373213481418396</v>
+        <v>0.2073657991091229</v>
       </c>
       <c r="E126" t="n">
-        <v>0.9894910767429179</v>
+        <v>0.05555555555555552</v>
       </c>
     </row>
     <row r="127">
@@ -2596,16 +2596,16 @@
         <v>44713</v>
       </c>
       <c r="B127" t="n">
-        <v>0.7989289927695611</v>
+        <v>0.02129272588149411</v>
       </c>
       <c r="C127" t="n">
-        <v>0.8279645765271101</v>
+        <v>0</v>
       </c>
       <c r="D127" t="n">
-        <v>1</v>
+        <v>0.2311549739183509</v>
       </c>
       <c r="E127" t="n">
-        <v>0.9998990712482405</v>
+        <v>0.05555555555555552</v>
       </c>
     </row>
     <row r="128">
@@ -2613,16 +2613,16 @@
         <v>44743</v>
       </c>
       <c r="B128" t="n">
-        <v>0.8140641755195509</v>
+        <v>0.02544185113400933</v>
       </c>
       <c r="C128" t="n">
-        <v>0.8350499354766038</v>
+        <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>0.3707296219929684</v>
+        <v>0.3016369541722478</v>
       </c>
       <c r="E128" t="n">
-        <v>0.9771713840447283</v>
+        <v>0.03968253968253971</v>
       </c>
     </row>
     <row r="129">
@@ -2630,16 +2630,16 @@
         <v>44774</v>
       </c>
       <c r="B129" t="n">
-        <v>0.8208919451701608</v>
+        <v>0.02344985019454058</v>
       </c>
       <c r="C129" t="n">
-        <v>0.8272376443346845</v>
+        <v>0</v>
       </c>
       <c r="D129" t="n">
-        <v>0.4356150255383813</v>
+        <v>0.2463000449310916</v>
       </c>
       <c r="E129" t="n">
-        <v>0.9966912583357779</v>
+        <v>0.06349206349206349</v>
       </c>
     </row>
     <row r="130">
@@ -2647,16 +2647,16 @@
         <v>44805</v>
       </c>
       <c r="B130" t="n">
-        <v>0.8120903226948355</v>
+        <v>0.02302344222922736</v>
       </c>
       <c r="C130" t="n">
-        <v>0.827137159737487</v>
+        <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>0.5617259035703712</v>
+        <v>0.1508022625925179</v>
       </c>
       <c r="E130" t="n">
-        <v>0.9931564108696392</v>
+        <v>0.007936507936507908</v>
       </c>
     </row>
     <row r="131">
@@ -2664,16 +2664,16 @@
         <v>44835</v>
       </c>
       <c r="B131" t="n">
-        <v>0.7984613780182788</v>
+        <v>0.02386717914940575</v>
       </c>
       <c r="C131" t="n">
-        <v>0.8261809070724782</v>
+        <v>0</v>
       </c>
       <c r="D131" t="n">
-        <v>0.5863861258720136</v>
+        <v>0.2438155987828777</v>
       </c>
       <c r="E131" t="n">
-        <v>0.986597945689223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -2681,16 +2681,16 @@
         <v>44866</v>
       </c>
       <c r="B132" t="n">
-        <v>0.8047628919116875</v>
+        <v>0.02538340737082387</v>
       </c>
       <c r="C132" t="n">
-        <v>0.8249456853534888</v>
+        <v>0</v>
       </c>
       <c r="D132" t="n">
-        <v>0.4252858022654106</v>
+        <v>0.2838660093332968</v>
       </c>
       <c r="E132" t="n">
-        <v>0.982967929989221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -2698,16 +2698,16 @@
         <v>44896</v>
       </c>
       <c r="B133" t="n">
-        <v>0.8305827208491328</v>
+        <v>0.02560968687767055</v>
       </c>
       <c r="C133" t="n">
-        <v>0.8231128340033643</v>
+        <v>0</v>
       </c>
       <c r="D133" t="n">
         <v>0</v>
       </c>
       <c r="E133" t="n">
-        <v>0.9894576781362352</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/covid19_drdfm/data/example-output/NJ/df.xlsx
+++ b/covid19_drdfm/data/example-output/NJ/df.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E133"/>
+  <dimension ref="A1:O133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,19 +452,69 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Prod</t>
+          <t>RPFI</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>FixAss</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>UI</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>PartR</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>UR</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Cons3</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Cons5</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>CPIU</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>PCE</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Mask2</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>School</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Hosp1</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Deaths1</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -480,7 +530,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.4841269841269842</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -491,13 +571,43 @@
         <v>0.02441069095771728</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.787296932341256</v>
       </c>
       <c r="D3" t="n">
+        <v>0.4316355963542367</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.2356667067581342</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.4841269841269842</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.00333674602727409</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.004770381589348478</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.4804248097350872</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.9679389035394174</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -508,13 +618,43 @@
         <v>0.02457229803726312</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.7855540501163147</v>
       </c>
       <c r="D4" t="n">
+        <v>0.4503769791067421</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.217974595828506</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.4920634920634921</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.003549370126695757</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.004955824935208224</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.4783596646895119</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.966573298315848</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -525,13 +665,43 @@
         <v>0.02241540933307759</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.682302313198175</v>
       </c>
       <c r="D5" t="n">
+        <v>0.3276289766890497</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.2250850463659947</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.003938654785416018</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.005297992937162518</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.4580164258916395</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.9640820130383683</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -542,13 +712,43 @@
         <v>0.02375125806111058</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.6814981993505117</v>
       </c>
       <c r="D6" t="n">
+        <v>0.4704981348226964</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.1668024439703321</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.005538990389908467</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.006714419885059191</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.2823120937051792</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.9538741718760513</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -559,13 +759,43 @@
         <v>0.02340989212617466</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.6807036917258766</v>
       </c>
       <c r="D7" t="n">
+        <v>0.4333211582972052</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.2330599268368115</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.005128807615593553</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.006347479367261069</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.3408982227867237</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.956476820529933</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -576,13 +806,43 @@
         <v>0.02497431580168536</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.648787009187038</v>
       </c>
       <c r="D8" t="n">
+        <v>0.6316661138002568</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.3043481132152469</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.5</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.004559665721732809</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.005839558495209538</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.3934463727922193</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.9600922983102562</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -593,13 +853,43 @@
         <v>0.02331947946313506</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.6486857669208395</v>
       </c>
       <c r="D9" t="n">
+        <v>0.4546102415478713</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.2238245420389663</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.4920634920634921</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.002589168681221312</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.004088615548108664</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.6527359268372354</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.9726370191705382</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -610,13 +900,43 @@
         <v>0.02348280799839463</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.6485849920241514</v>
       </c>
       <c r="D10" t="n">
+        <v>0.4727243943072957</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.1727651411809</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.4920634920634921</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.002798019759300069</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.004270838492250748</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.6040928049754837</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.9712958398905062</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -627,13 +947,43 @@
         <v>0.01955402017460505</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.6236566473419988</v>
       </c>
       <c r="D11" t="n">
+        <v>0.06697411848735579</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.2371748981574729</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n">
         <v>0.4841269841269842</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.002841573847553641</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.004306458589935669</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.506728251696605</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.9710078867636006</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -644,13 +994,43 @@
         <v>0.0215486248593313</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.6227105307546748</v>
       </c>
       <c r="D12" t="n">
+        <v>0.2798510463344248</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.3282050725162771</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
         <v>0.4841269841269842</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.005234995828993651</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.006426500451585901</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.3006557725101743</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.9557458204525275</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -661,13 +1041,43 @@
         <v>0.02126159246553339</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.6217682001860108</v>
       </c>
       <c r="D13" t="n">
+        <v>0.2477878272711235</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.2219575384293991</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
+        <v>0.9787234042553177</v>
+      </c>
+      <c r="G13" t="n">
         <v>0.4761904761904761</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.004893384053457769</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.006120507404429949</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.37413804795302</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.9579119267895568</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -678,13 +1088,43 @@
         <v>0.02695831060545701</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6350563355895624</v>
+        <v>0.7905937362170989</v>
       </c>
       <c r="D14" t="n">
+        <v>0.8145580433879297</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.2889776751159809</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
+        <v>0.9574468085106371</v>
+      </c>
+      <c r="G14" t="n">
         <v>0.4682539682539681</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.004408535028657669</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.004445347771551627</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.4730736920152049</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.9666573187698657</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -695,13 +1135,43 @@
         <v>0.02595608399771079</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.7895457411036665</v>
       </c>
       <c r="D15" t="n">
+        <v>0.7099229003132266</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.2217978934816421</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
+        <v>0.9361702127659548</v>
+      </c>
+      <c r="G15" t="n">
         <v>0.4603174603174602</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.003265954327089089</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.003434620310714119</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.6349860070635606</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.9739022526346681</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -712,13 +1182,43 @@
         <v>0.02863150302934812</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.7885090499575722</v>
       </c>
       <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.2249353196811505</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
+        <v>0.9148936170212743</v>
+      </c>
+      <c r="G16" t="n">
         <v>0.4523809523809524</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.00653064167621046</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.006333247390414655</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.2471689513070562</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.953062076468007</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -729,13 +1229,43 @@
         <v>0.02199628319135574</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.5908402158314705</v>
       </c>
       <c r="D17" t="n">
+        <v>0.4518110219070474</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.1950495606160301</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
+        <v>0.8723404255319132</v>
+      </c>
+      <c r="G17" t="n">
         <v>0.4444444444444445</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.006174061265994873</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.006019683853864418</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.2813645162752761</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.9552985360150279</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -746,13 +1276,43 @@
         <v>0.02120631097913898</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.5905430550806225</v>
       </c>
       <c r="D18" t="n">
+        <v>0.3656266312029584</v>
+      </c>
+      <c r="E18" t="n">
         <v>0.1785803099194213</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
+        <v>0.8510638297872326</v>
+      </c>
+      <c r="G18" t="n">
         <v>0.4365079365079364</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.005223631906372589</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.005179338971219241</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.3993518297214528</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.9613194141187007</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -763,13 +1323,43 @@
         <v>0.02037991634652395</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.5902454247488402</v>
       </c>
       <c r="D19" t="n">
+        <v>0.2755367015844216</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.231455093427825</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
+        <v>0.8297872340425503</v>
+      </c>
+      <c r="G19" t="n">
         <v>0.4206349206349206</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.004229582019302604</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.004300281534568869</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.4918638127890506</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.9676185898792923</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -780,13 +1370,43 @@
         <v>0.02258910935646654</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.6475011281462814</v>
       </c>
       <c r="D20" t="n">
+        <v>0.3478506723388306</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.3121298159672608</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
+        <v>0.787234042553191</v>
+      </c>
+      <c r="G20" t="n">
         <v>0.4126984126984127</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.004824098541042531</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.004830308677567416</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.4719810427311055</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.9637948380358665</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -797,13 +1417,43 @@
         <v>0.02242677103191798</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.6468072818210696</v>
       </c>
       <c r="D21" t="n">
+        <v>0.3290885391215807</v>
+      </c>
+      <c r="E21" t="n">
         <v>0.2278127052190612</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
+        <v>0.7446808510638281</v>
+      </c>
+      <c r="G21" t="n">
         <v>0.3968253968253967</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.004625121967840234</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.004656464856907776</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.4921920362000497</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.9650278671739611</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -814,13 +1464,43 @@
         <v>0.02305379341247639</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.6461187990800238</v>
       </c>
       <c r="D22" t="n">
+        <v>0.3950693240944849</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.1741457821427412</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
+        <v>0.702127659574467</v>
+      </c>
+      <c r="G22" t="n">
         <v>0.3809523809523809</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.005372402561458517</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.005321959008001332</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.3976005690238599</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.9602308122521267</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -831,13 +1511,43 @@
         <v>0.02351304838806188</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.6595024393951976</v>
       </c>
       <c r="D23" t="n">
+        <v>0.4329858890569949</v>
+      </c>
+      <c r="E23" t="n">
         <v>0.2165170906942426</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
+        <v>0.6595744680851041</v>
+      </c>
+      <c r="G23" t="n">
         <v>0.365079365079365</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.00451265881225406</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.004561956982516597</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.4050553748719518</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.9656751792246812</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -848,13 +1558,43 @@
         <v>0.02357818115469768</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.6591479445551625</v>
       </c>
       <c r="D24" t="n">
+        <v>0.439702164380917</v>
+      </c>
+      <c r="E24" t="n">
         <v>0.2798960860392694</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
+        <v>0.6382978723404253</v>
+      </c>
+      <c r="G24" t="n">
         <v>0.3492063492063492</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.004593087104933226</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.004635895626429262</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.4666731454969064</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.9651282623410788</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -865,13 +1605,43 @@
         <v>0.02333644699035518</v>
       </c>
       <c r="C25" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.6587964130692594</v>
       </c>
       <c r="D25" t="n">
+        <v>0.4134782169754514</v>
+      </c>
+      <c r="E25" t="n">
         <v>0.3087412585569813</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
+        <v>0.6170212765957412</v>
+      </c>
+      <c r="G25" t="n">
         <v>0.3412698412698413</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.00430564336886165</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.004383502337593086</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.504271433281398</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.9669260016326096</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -882,13 +1652,43 @@
         <v>0.02049810347067134</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>0.6218278808879162</v>
       </c>
       <c r="D26" t="n">
+        <v>0.3225816536151586</v>
+      </c>
+      <c r="E26" t="n">
         <v>0.2455569546086435</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
+        <v>0.5957446808510625</v>
+      </c>
+      <c r="G26" t="n">
         <v>0.3253968253968254</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.003424147884915373</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.005109805031736382</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.493934346505972</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.9665405811298221</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -899,13 +1699,43 @@
         <v>0.0212164724406473</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.6215705208002676</v>
       </c>
       <c r="D27" t="n">
+        <v>0.3989990306478687</v>
+      </c>
+      <c r="E27" t="n">
         <v>0.2668274224749897</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
+        <v>0.6170212765957412</v>
+      </c>
+      <c r="G27" t="n">
         <v>0.3095238095238094</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.004286193390927545</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.005870093949262429</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.4316850960443767</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.9610381658735081</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -916,13 +1746,43 @@
         <v>0.02043804532445498</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.621314110707643</v>
       </c>
       <c r="D28" t="n">
+        <v>0.3147377649477701</v>
+      </c>
+      <c r="E28" t="n">
         <v>0.2134803346349087</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
+        <v>0.6170212765957412</v>
+      </c>
+      <c r="G28" t="n">
         <v>0.3015873015873016</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.00335400007848458</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.00503887217607607</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.4759716818008413</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.9669709174555586</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -933,13 +1793,43 @@
         <v>0.02329243210333047</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.706167958725167</v>
       </c>
       <c r="D29" t="n">
+        <v>0.2651560778212304</v>
+      </c>
+      <c r="E29" t="n">
         <v>0.1672042641149286</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
+        <v>0.6170212765957412</v>
+      </c>
+      <c r="G29" t="n">
         <v>0.2857142857142857</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.003393732030340856</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.005069806474186276</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.467607911577312</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.9667094161832184</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -950,13 +1840,43 @@
         <v>0.02340591221460959</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.7046027629773456</v>
       </c>
       <c r="D30" t="n">
+        <v>0.2768194062446919</v>
+      </c>
+      <c r="E30" t="n">
         <v>0.1896434983320205</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
+        <v>0.6382978723404253</v>
+      </c>
+      <c r="G30" t="n">
         <v>0.2777777777777778</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.003535519988065233</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.005191297521395829</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.4694354679379368</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.9657974574043684</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -967,13 +1887,43 @@
         <v>0.02372654948643055</v>
       </c>
       <c r="C31" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.7030622151034818</v>
       </c>
       <c r="D31" t="n">
+        <v>0.3107183899709532</v>
+      </c>
+      <c r="E31" t="n">
         <v>0.2259632069934967</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
+        <v>0.6382978723404253</v>
+      </c>
+      <c r="G31" t="n">
         <v>0.2777777777777778</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.003925590513449066</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.005533052200388624</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.4420601940130754</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.9633029987871482</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -984,13 +1934,43 @@
         <v>0.02342049085217934</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.6686522348865265</v>
       </c>
       <c r="D32" t="n">
+        <v>0.3274094031670446</v>
+      </c>
+      <c r="E32" t="n">
         <v>0.323270107351689</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
+        <v>0.6595744680851041</v>
+      </c>
+      <c r="G32" t="n">
         <v>0.2698412698412698</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.003676380151059114</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.005307775882082406</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.4328522352647602</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.9648830981661997</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1001,13 +1981,43 @@
         <v>0.02430958152624463</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.6678885949393717</v>
       </c>
       <c r="D33" t="n">
+        <v>0.4224733762078909</v>
+      </c>
+      <c r="E33" t="n">
         <v>0.2208402377113134</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
+        <v>0.6595744680851041</v>
+      </c>
+      <c r="G33" t="n">
         <v>0.2698412698412698</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.004747081785423973</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.006253328770465352</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.3723022077765162</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.9580503926351426</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1018,13 +2028,43 @@
         <v>0.02409695213623895</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.6671329670750284</v>
       </c>
       <c r="D34" t="n">
+        <v>0.3992660417532933</v>
+      </c>
+      <c r="E34" t="n">
         <v>0.1623333137486769</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
+        <v>0.6808510638297864</v>
+      </c>
+      <c r="G34" t="n">
         <v>0.2698412698412698</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.004497086596260596</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.006027414535828882</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.3832166305801797</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.9596354928650028</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1035,13 +2075,43 @@
         <v>0.02365458423887975</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.6602081511007809</v>
       </c>
       <c r="D35" t="n">
+        <v>0.5457462087566267</v>
+      </c>
+      <c r="E35" t="n">
         <v>0.2260000911559502</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
+        <v>0.6808510638297864</v>
+      </c>
+      <c r="G35" t="n">
         <v>0.2619047619047619</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.004827366894228154</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.006316250057401956</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.3705152434098531</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.9575220698412108</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1052,13 +2122,43 @@
         <v>0.02393504336403703</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.6599561179297766</v>
       </c>
       <c r="D36" t="n">
+        <v>0.5754088966777398</v>
+      </c>
+      <c r="E36" t="n">
         <v>0.2686044304495113</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
+        <v>0.6808510638297864</v>
+      </c>
+      <c r="G36" t="n">
         <v>0.2619047619047619</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.005164283885702434</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.00661100092747614</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.2910385964014466</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.9553663852445861</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1069,13 +2169,43 @@
         <v>0.0243547811205521</v>
       </c>
       <c r="C37" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.6597059930100673</v>
       </c>
       <c r="D37" t="n">
+        <v>0.6200270072371</v>
+      </c>
+      <c r="E37" t="n">
         <v>0.2685414018138217</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
+        <v>0.6808510638297864</v>
+      </c>
+      <c r="G37" t="n">
         <v>0.253968253968254</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.00566815468966031</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.007053872740811261</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.2342588880723614</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.9521466689884892</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1086,13 +2216,43 @@
         <v>0.02796607894564143</v>
       </c>
       <c r="C38" t="n">
-        <v>0.3000806161787212</v>
+        <v>0.6596856340021373</v>
       </c>
       <c r="D38" t="n">
+        <v>0.9013011850590784</v>
+      </c>
+      <c r="E38" t="n">
         <v>0.3016406514443118</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
+        <v>0.6595744680851041</v>
+      </c>
+      <c r="G38" t="n">
         <v>0.246031746031746</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.008012897252584708</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.008575632620401293</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.07870096975326518</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.9391826878446033</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1103,13 +2263,43 @@
         <v>0.02450778307074274</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.6595579058482745</v>
       </c>
       <c r="D39" t="n">
+        <v>0.5310148225774812</v>
+      </c>
+      <c r="E39" t="n">
         <v>0.2410606318333706</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
+        <v>0.6595744680851041</v>
+      </c>
+      <c r="G39" t="n">
         <v>0.246031746031746</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.003882976164645613</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.004910671239726535</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.4991270461619542</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.965489893197179</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1120,13 +2310,43 @@
         <v>0.0243449764454269</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.6594307845590425</v>
       </c>
       <c r="D40" t="n">
+        <v>0.5144919377171177</v>
+      </c>
+      <c r="E40" t="n">
         <v>0.219937798337019</v>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
+        <v>0.6595744680851041</v>
+      </c>
+      <c r="G40" t="n">
         <v>0.2380952380952381</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.003703273085122589</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.004749676664764864</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.5066174053952723</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.9666207178331913</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1137,13 +2357,43 @@
         <v>0.02390108497820157</v>
       </c>
       <c r="C41" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.6385583477562953</v>
       </c>
       <c r="D41" t="n">
+        <v>0.3957092053258013</v>
+      </c>
+      <c r="E41" t="n">
         <v>0.1422471906124042</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
+        <v>0.6382978723404253</v>
+      </c>
+      <c r="G41" t="n">
         <v>0.2301587301587301</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.00445744968504138</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.005417070432852844</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.4289422565245661</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.9617994349538268</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1154,13 +2404,43 @@
         <v>0.02300636756052759</v>
       </c>
       <c r="C42" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.6384152955428545</v>
       </c>
       <c r="D42" t="n">
+        <v>0.3000152441871468</v>
+      </c>
+      <c r="E42" t="n">
         <v>0.1816570240494249</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
+        <v>0.6382978723404253</v>
+      </c>
+      <c r="G42" t="n">
         <v>0.2222222222222222</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.003389459267153897</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.004468160472193539</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.5349905266530876</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.9685919911023991</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1171,13 +2451,43 @@
         <v>0.02324809027590444</v>
       </c>
       <c r="C43" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.6382730129223185</v>
       </c>
       <c r="D43" t="n">
+        <v>0.3263182748359573</v>
+      </c>
+      <c r="E43" t="n">
         <v>0.2324409600918159</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
+        <v>0.6170212765957412</v>
+      </c>
+      <c r="G43" t="n">
         <v>0.2063492063492063</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.003683716430306502</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.004727613205257289</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.5101022712614719</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.9667021880574344</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1188,13 +2498,43 @@
         <v>0.02328145036564735</v>
       </c>
       <c r="C44" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.6477142166710357</v>
       </c>
       <c r="D44" t="n">
+        <v>0.4284669337589372</v>
+      </c>
+      <c r="E44" t="n">
         <v>0.3323851161207091</v>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
+        <v>0.5957446808510625</v>
+      </c>
+      <c r="G44" t="n">
         <v>0.1904761904761904</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.004415036913569993</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.005374763735962967</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.4545412938591608</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.9620265158749708</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1205,13 +2545,43 @@
         <v>0.02372485748510504</v>
       </c>
       <c r="C45" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.6475846888026274</v>
       </c>
       <c r="D45" t="n">
+        <v>0.476107003827606</v>
+      </c>
+      <c r="E45" t="n">
         <v>0.2319154370084273</v>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
+        <v>0.5957446808510625</v>
+      </c>
+      <c r="G45" t="n">
         <v>0.1825396825396826</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.004947336940370102</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.005845387504030289</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.3796449961608567</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.9586193262337169</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1222,13 +2592,43 @@
         <v>0.02454014016133857</v>
       </c>
       <c r="C46" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.6474558704090012</v>
       </c>
       <c r="D46" t="n">
+        <v>0.5636690340547477</v>
+      </c>
+      <c r="E46" t="n">
         <v>0.153913695478692</v>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
+        <v>0.5744680851063819</v>
+      </c>
+      <c r="G46" t="n">
         <v>0.1666666666666666</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.00592541014148491</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.006711434682177138</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.2738033829246919</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.9523708961543608</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1239,13 +2639,43 @@
         <v>0.02250746628680382</v>
       </c>
       <c r="C47" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.5730115457240347</v>
       </c>
       <c r="D47" t="n">
+        <v>0.4411659863076993</v>
+      </c>
+      <c r="E47" t="n">
         <v>0.2126269395714937</v>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
+        <v>0.5744680851063819</v>
+      </c>
+      <c r="G47" t="n">
         <v>0.1587301587301587</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.005044779682121432</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.005928768779739018</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.4264502145385787</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.9579696750175393</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1256,13 +2686,43 @@
         <v>0.02209296665632425</v>
       </c>
       <c r="C48" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.5729907319501094</v>
       </c>
       <c r="D48" t="n">
+        <v>0.3964145886441547</v>
+      </c>
+      <c r="E48" t="n">
         <v>0.2687506090024244</v>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
+        <v>0.5744680851063819</v>
+      </c>
+      <c r="G48" t="n">
         <v>0.1507936507936508</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.004545713235927113</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.005484570892739731</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.4361074937639563</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.9611364394003525</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1273,13 +2733,43 @@
         <v>0.02287406608165498</v>
       </c>
       <c r="C49" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.5729698835298482</v>
       </c>
       <c r="D49" t="n">
+        <v>0.4800154620740187</v>
+      </c>
+      <c r="E49" t="n">
         <v>0.2662249822571683</v>
       </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
+        <v>0.5957446808510625</v>
+      </c>
+      <c r="G49" t="n">
         <v>0.1428571428571428</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.005479853515379418</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.006311677717088794</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.3291286649421136</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.9551682272165031</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1290,13 +2780,43 @@
         <v>0.0244250404917788</v>
       </c>
       <c r="C50" t="n">
-        <v>0.2018198588070252</v>
+        <v>0.669471368086156</v>
       </c>
       <c r="D50" t="n">
+        <v>0.6586972174348487</v>
+      </c>
+      <c r="E50" t="n">
         <v>0.3184408869944702</v>
       </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
+        <v>0.6170212765957412</v>
+      </c>
+      <c r="G50" t="n">
         <v>0.1428571428571428</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.003305782897199629</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.006115137068652224</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.3582333302100829</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.9607309983917958</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1307,13 +2827,43 @@
         <v>0.02503848167653229</v>
       </c>
       <c r="C51" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.6693299384094527</v>
       </c>
       <c r="D51" t="n">
+        <v>0.7244740839282735</v>
+      </c>
+      <c r="E51" t="n">
         <v>0.2569252649788653</v>
       </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
+        <v>0.6170212765957412</v>
+      </c>
+      <c r="G51" t="n">
         <v>0.1428571428571428</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.004051202329370523</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.006769531543339101</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.317139331932879</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.9559797406527168</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1324,13 +2874,43 @@
         <v>0.02342073181379505</v>
       </c>
       <c r="C52" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.6691890723878952</v>
       </c>
       <c r="D52" t="n">
+        <v>0.5507223794161377</v>
+      </c>
+      <c r="E52" t="n">
         <v>0.2053465616116218</v>
       </c>
-      <c r="E52" t="n">
+      <c r="F52" t="n">
+        <v>0.6170212765957412</v>
+      </c>
+      <c r="G52" t="n">
         <v>0.1428571428571428</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.002121951170556132</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.005051463868831183</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.527342817213182</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.9682764402574415</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1341,13 +2921,43 @@
         <v>0.02107607778327495</v>
       </c>
       <c r="C53" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.5835485679118964</v>
       </c>
       <c r="D53" t="n">
+        <v>0.2017431089629252</v>
+      </c>
+      <c r="E53" t="n">
         <v>0.1651254496535879</v>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
+        <v>0.5957446808510625</v>
+      </c>
+      <c r="G53" t="n">
         <v>0.1428571428571428</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.001472342595862768</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.004468521232588486</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.5600276253743403</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.9724172516696103</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1358,13 +2968,43 @@
         <v>0.0220734200903285</v>
       </c>
       <c r="C54" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.5833661657811365</v>
       </c>
       <c r="D54" t="n">
+        <v>0.307701327771733</v>
+      </c>
+      <c r="E54" t="n">
         <v>0.2012741466457534</v>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
+        <v>0.5957446808510625</v>
+      </c>
+      <c r="G54" t="n">
         <v>0.1428571428571428</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.002668114505345423</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.005522529077965077</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.4911291353516724</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.9647954030113071</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1375,13 +3015,43 @@
         <v>0.02184253081872439</v>
       </c>
       <c r="C55" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.5831832565883567</v>
       </c>
       <c r="D55" t="n">
+        <v>0.2818059100648009</v>
+      </c>
+      <c r="E55" t="n">
         <v>0.2149085079356341</v>
       </c>
-      <c r="E55" t="n">
+      <c r="F55" t="n">
+        <v>0.5957446808510625</v>
+      </c>
+      <c r="G55" t="n">
         <v>0.1428571428571428</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.002391570164104383</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.005270595613899032</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.5104932049111612</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.9665581937920824</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1392,13 +3062,43 @@
         <v>0.02317178753792105</v>
       </c>
       <c r="C56" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.6264699429477893</v>
       </c>
       <c r="D56" t="n">
+        <v>0.4482199965401522</v>
+      </c>
+      <c r="E56" t="n">
         <v>0.320265247339612</v>
       </c>
-      <c r="E56" t="n">
+      <c r="F56" t="n">
+        <v>0.5744680851063819</v>
+      </c>
+      <c r="G56" t="n">
         <v>0.1428571428571428</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.003371824246128389</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.006133522833845524</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.3560972505717873</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.9603096985690595</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1409,13 +3109,43 @@
         <v>0.02257598387784264</v>
       </c>
       <c r="C57" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.6262842620409197</v>
       </c>
       <c r="D57" t="n">
+        <v>0.3836060013989704</v>
+      </c>
+      <c r="E57" t="n">
         <v>0.2411763282346789</v>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
+        <v>0.5744680851063819</v>
+      </c>
+      <c r="G57" t="n">
         <v>0.1428571428571428</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.00265915969802522</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.005494827045132449</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.4669182200412889</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.9648524551104239</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1426,13 +3156,43 @@
         <v>0.02244465109932508</v>
       </c>
       <c r="C58" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.6260993834599098</v>
       </c>
       <c r="D58" t="n">
+        <v>0.3688586588284019</v>
+      </c>
+      <c r="E58" t="n">
         <v>0.1340478147783812</v>
       </c>
-      <c r="E58" t="n">
+      <c r="F58" t="n">
+        <v>0.5531914893616996</v>
+      </c>
+      <c r="G58" t="n">
         <v>0.1349206349206349</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.002503264720955882</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.005350045441682947</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.5033182562553414</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.9658462222735239</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -1443,13 +3203,43 @@
         <v>0.02211843315594467</v>
       </c>
       <c r="C59" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.6093448972365265</v>
       </c>
       <c r="D59" t="n">
+        <v>0.3051419606356318</v>
+      </c>
+      <c r="E59" t="n">
         <v>0.245003235977308</v>
       </c>
-      <c r="E59" t="n">
+      <c r="F59" t="n">
+        <v>0.5531914893616996</v>
+      </c>
+      <c r="G59" t="n">
         <v>0.1349206349206349</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.002191176609491419</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.005066759290890765</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.4901319569909405</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.9678357228058145</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1460,13 +3250,43 @@
         <v>0.02311925060081415</v>
       </c>
       <c r="C60" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.6091627650469927</v>
       </c>
       <c r="D60" t="n">
+        <v>0.4118020660201776</v>
+      </c>
+      <c r="E60" t="n">
         <v>0.2758483921861984</v>
       </c>
-      <c r="E60" t="n">
+      <c r="F60" t="n">
+        <v>0.5319148936170208</v>
+      </c>
+      <c r="G60" t="n">
         <v>0.126984126984127</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.003392184723021666</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.006125675799455338</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.4353786391004341</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.9601796615295174</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1477,13 +3297,43 @@
         <v>0.02232840888321599</v>
       </c>
       <c r="C61" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.6089809352596822</v>
       </c>
       <c r="D61" t="n">
+        <v>0.3261232875329494</v>
+      </c>
+      <c r="E61" t="n">
         <v>0.2619245692529212</v>
       </c>
-      <c r="E61" t="n">
+      <c r="F61" t="n">
+        <v>0.5106382978723403</v>
+      </c>
+      <c r="G61" t="n">
         <v>0.1190476190476191</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.002445477209982916</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.005279549277592291</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.4986856164755484</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.9662146507041421</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -1494,13 +3344,43 @@
         <v>0.02031816380439698</v>
       </c>
       <c r="C62" t="n">
-        <v>0.2813181882129138</v>
+        <v>0.6142055845164029</v>
       </c>
       <c r="D62" t="n">
+        <v>0.1333973073055315</v>
+      </c>
+      <c r="E62" t="n">
         <v>0.3175184961229784</v>
       </c>
-      <c r="E62" t="n">
+      <c r="F62" t="n">
+        <v>0.5106382978723403</v>
+      </c>
+      <c r="G62" t="n">
         <v>0.111111111111111</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.002416865238613024</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.003895431262655456</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.5700337409100718</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.9741675116419231</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -1511,13 +3391,43 @@
         <v>0.0215150460956215</v>
       </c>
       <c r="C63" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.6136629859945832</v>
       </c>
       <c r="D63" t="n">
+        <v>0.2604367238356419</v>
+      </c>
+      <c r="E63" t="n">
         <v>0.2466374668383868</v>
       </c>
-      <c r="E63" t="n">
+      <c r="F63" t="n">
+        <v>0.5106382978723403</v>
+      </c>
+      <c r="G63" t="n">
         <v>0.1031746031746031</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.003849764615829221</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.005163510875373456</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.454856946818932</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.9650207628940169</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -1528,13 +3438,43 @@
         <v>0.02265959917730039</v>
       </c>
       <c r="C64" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.613121711621179</v>
       </c>
       <c r="D64" t="n">
+        <v>0.3818576281803148</v>
+      </c>
+      <c r="E64" t="n">
         <v>0.2278641063222963</v>
       </c>
-      <c r="E64" t="n">
+      <c r="F64" t="n">
+        <v>0.5106382978723403</v>
+      </c>
+      <c r="G64" t="n">
         <v>0.1031746031746031</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.00521994214766622</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.006375974713614834</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.3578150554331625</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.9562735189784204</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -1545,13 +3485,43 @@
         <v>0.02337489578110503</v>
       </c>
       <c r="C65" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.6710091789761428</v>
       </c>
       <c r="D65" t="n">
+        <v>0.4860483886176926</v>
+      </c>
+      <c r="E65" t="n">
         <v>0.1758356902574233</v>
       </c>
-      <c r="E65" t="n">
+      <c r="F65" t="n">
+        <v>0.5106382978723403</v>
+      </c>
+      <c r="G65" t="n">
         <v>0.09523809523809529</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.003411216259708013</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.004768679748298232</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.4379823293781138</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.967792310613265</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -1562,13 +3532,43 @@
         <v>0.02472881579959407</v>
       </c>
       <c r="C66" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.6708166597741055</v>
       </c>
       <c r="D66" t="n">
+        <v>0.6314471836532406</v>
+      </c>
+      <c r="E66" t="n">
         <v>0.1614180769134578</v>
       </c>
-      <c r="E66" t="n">
+      <c r="F66" t="n">
+        <v>0.5319148936170208</v>
+      </c>
+      <c r="G66" t="n">
         <v>0.1031746031746031</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.005041235070654627</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.006211670299394231</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.3433451879440547</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.9573885046215503</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -1579,13 +3579,43 @@
         <v>0.02404147823365536</v>
       </c>
       <c r="C67" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.6706252998297506</v>
       </c>
       <c r="D67" t="n">
+        <v>0.557707805368782</v>
+      </c>
+      <c r="E67" t="n">
         <v>0.2303534552598898</v>
       </c>
-      <c r="E67" t="n">
+      <c r="F67" t="n">
+        <v>0.5106382978723403</v>
+      </c>
+      <c r="G67" t="n">
         <v>0.1031746031746031</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.004224282390799733</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.005484146425689543</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.410549347079741</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.9625847141759466</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -1596,13 +3626,43 @@
         <v>0.02446079702589439</v>
       </c>
       <c r="C68" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.6181253136508014</v>
       </c>
       <c r="D68" t="n">
+        <v>0.501752183396055</v>
+      </c>
+      <c r="E68" t="n">
         <v>0.3409344971714884</v>
       </c>
-      <c r="E68" t="n">
+      <c r="F68" t="n">
+        <v>0.5106382978723403</v>
+      </c>
+      <c r="G68" t="n">
         <v>0.1031746031746031</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.004682875286153661</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.005888087741874954</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.3952852113377378</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.9596490326494385</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -1613,13 +3673,43 @@
         <v>0.02329305174551147</v>
       </c>
       <c r="C69" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.6180635943827568</v>
       </c>
       <c r="D69" t="n">
+        <v>0.3764942675639522</v>
+      </c>
+      <c r="E69" t="n">
         <v>0.2282079272101981</v>
       </c>
-      <c r="E69" t="n">
+      <c r="F69" t="n">
+        <v>0.4893617021276579</v>
+      </c>
+      <c r="G69" t="n">
         <v>0.111111111111111</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.003290302477091087</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.004650011252784616</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.5609150233935125</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.9685152302080455</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -1630,13 +3720,43 @@
         <v>0.02253033266226177</v>
       </c>
       <c r="C70" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.6180020549662463</v>
       </c>
       <c r="D70" t="n">
+        <v>0.2947162050071399</v>
+      </c>
+      <c r="E70" t="n">
         <v>0.1332123393315109</v>
       </c>
-      <c r="E70" t="n">
+      <c r="F70" t="n">
+        <v>0.4680851063829774</v>
+      </c>
+      <c r="G70" t="n">
         <v>0.111111111111111</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.002383184793705624</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.003842566573360041</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.6199503001817661</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.9742869427779088</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -1647,13 +3767,43 @@
         <v>0.02301450344361099</v>
       </c>
       <c r="C71" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.6618044083073755</v>
       </c>
       <c r="D71" t="n">
+        <v>0.2729015352173925</v>
+      </c>
+      <c r="E71" t="n">
         <v>0.231314012462381</v>
       </c>
-      <c r="E71" t="n">
+      <c r="F71" t="n">
+        <v>0.4468085106382969</v>
+      </c>
+      <c r="G71" t="n">
         <v>0.111111111111111</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.003875751584528261</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.005163730110856407</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.4163665091399184</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.9647592257847142</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -1664,13 +3814,43 @@
         <v>0.02290998580897237</v>
       </c>
       <c r="C72" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.6607964439407187</v>
       </c>
       <c r="D72" t="n">
+        <v>0.2606735819867684</v>
+      </c>
+      <c r="E72" t="n">
         <v>0.251041419588466</v>
       </c>
-      <c r="E72" t="n">
+      <c r="F72" t="n">
+        <v>0.4255319148936163</v>
+      </c>
+      <c r="G72" t="n">
         <v>0.111111111111111</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.003752111832988967</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.005051290788596337</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.5054531287823583</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.9655357433002423</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -1681,13 +3861,43 @@
         <v>0.02302144729413909</v>
       </c>
       <c r="C73" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.6597984604601232</v>
       </c>
       <c r="D73" t="n">
+        <v>0.2716306018409421</v>
+      </c>
+      <c r="E73" t="n">
         <v>0.2990501149350653</v>
       </c>
-      <c r="E73" t="n">
+      <c r="F73" t="n">
+        <v>0.3829787234042534</v>
+      </c>
+      <c r="G73" t="n">
         <v>0.1031746031746031</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.003887362366034336</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.00516851328073838</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.4790655403947179</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.9646616633608113</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -1698,13 +3908,43 @@
         <v>0.02531834169774559</v>
       </c>
       <c r="C74" t="n">
-        <v>0.5664585815888352</v>
+        <v>0.6867822522509801</v>
       </c>
       <c r="D74" t="n">
+        <v>0.450418677072268</v>
+      </c>
+      <c r="E74" t="n">
         <v>0.3232668764009624</v>
       </c>
-      <c r="E74" t="n">
+      <c r="F74" t="n">
+        <v>0.3829787234042534</v>
+      </c>
+      <c r="G74" t="n">
         <v>0.09523809523809529</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.003590287501903967</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.004392085273536298</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.5579617292651852</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.9735329438710333</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -1715,13 +3955,43 @@
         <v>0.02589162308838267</v>
       </c>
       <c r="C75" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.686447554552913</v>
       </c>
       <c r="D75" t="n">
+        <v>0.5150994816527694</v>
+      </c>
+      <c r="E75" t="n">
         <v>0.2295014561504396</v>
       </c>
-      <c r="E75" t="n">
+      <c r="F75" t="n">
+        <v>0.3829787234042534</v>
+      </c>
+      <c r="G75" t="n">
         <v>0.08730158730158727</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.004318435687288384</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.005037242573605341</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.5115782435314746</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.9688438384149842</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -1732,13 +4002,43 @@
         <v>0.02642035813428315</v>
       </c>
       <c r="C76" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.6861156960493465</v>
       </c>
       <c r="D76" t="n">
+        <v>0.5749354395312953</v>
+      </c>
+      <c r="E76" t="n">
         <v>0.2137484003961345</v>
       </c>
-      <c r="E76" t="n">
+      <c r="F76" t="n">
+        <v>0.4042553191489358</v>
+      </c>
+      <c r="G76" t="n">
         <v>0.07936507936507936</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.004992417398719737</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.005634360084515855</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.4066752155894716</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.9645001110870208</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -1749,13 +4049,43 @@
         <v>0.02323861015264088</v>
       </c>
       <c r="C77" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.664488492713645</v>
       </c>
       <c r="D77" t="n">
+        <v>0.4299532114813931</v>
+      </c>
+      <c r="E77" t="n">
         <v>0.1771234936562534</v>
       </c>
-      <c r="E77" t="n">
+      <c r="F77" t="n">
+        <v>0.4042553191489358</v>
+      </c>
+      <c r="G77" t="n">
         <v>0.07936507936507936</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.004626901992614505</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.005309421103844981</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.4864555798421895</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.9667848214319522</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -1766,13 +4096,43 @@
         <v>0.02326553036697558</v>
       </c>
       <c r="C78" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.6640450280485369</v>
       </c>
       <c r="D78" t="n">
+        <v>0.43223963097948</v>
+      </c>
+      <c r="E78" t="n">
         <v>0.1684616061007905</v>
       </c>
-      <c r="E78" t="n">
+      <c r="F78" t="n">
+        <v>0.4255319148936163</v>
+      </c>
+      <c r="G78" t="n">
         <v>0.0714285714285714</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.004658726260080726</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.00533694111208097</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.4990037387758953</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.9665362728472044</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -1783,13 +4143,43 @@
         <v>0.0236722477497492</v>
       </c>
       <c r="C79" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.6636056634228642</v>
       </c>
       <c r="D79" t="n">
+        <v>0.4753049768989923</v>
+      </c>
+      <c r="E79" t="n">
         <v>0.2295941104026852</v>
       </c>
-      <c r="E79" t="n">
+      <c r="F79" t="n">
+        <v>0.4255319148936163</v>
+      </c>
+      <c r="G79" t="n">
         <v>0.06349206349206349</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.005145828381216151</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.005768312790115098</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.443536424040789</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.9633848452105244</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -1800,13 +4190,43 @@
         <v>0.02370284866743719</v>
       </c>
       <c r="C80" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.6109514054360962</v>
       </c>
       <c r="D80" t="n">
+        <v>0.5191246336681148</v>
+      </c>
+      <c r="E80" t="n">
         <v>0.3285827859782575</v>
       </c>
-      <c r="E80" t="n">
+      <c r="F80" t="n">
+        <v>0.4042553191489358</v>
+      </c>
+      <c r="G80" t="n">
         <v>0.06349206349206349</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.005285250687006077</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.00589128953902348</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.4183183667114636</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.9624506699879065</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -1817,13 +4237,43 @@
         <v>0.02377421672384774</v>
       </c>
       <c r="C81" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.6109156184691562</v>
       </c>
       <c r="D81" t="n">
+        <v>0.5262010551452054</v>
+      </c>
+      <c r="E81" t="n">
         <v>0.2444791071651198</v>
       </c>
-      <c r="E81" t="n">
+      <c r="F81" t="n">
+        <v>0.3829787234042534</v>
+      </c>
+      <c r="G81" t="n">
         <v>0.05555555555555552</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.00536973305120396</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.005965539949008473</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.4596972479140294</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.9618671054426999</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -1834,13 +4284,43 @@
         <v>0.0230068222722365</v>
       </c>
       <c r="C82" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.6108798639252632</v>
       </c>
       <c r="D82" t="n">
+        <v>0.4432378600144552</v>
+      </c>
+      <c r="E82" t="n">
         <v>0.1315329830954992</v>
       </c>
-      <c r="E82" t="n">
+      <c r="F82" t="n">
+        <v>0.3829787234042534</v>
+      </c>
+      <c r="G82" t="n">
         <v>0.04761904761904762</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.004448777100361272</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.005147944767062379</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.4715287686595205</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.9676953519512914</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -1851,13 +4331,43 @@
         <v>0.02317111564141764</v>
       </c>
       <c r="C83" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.6422231751057845</v>
       </c>
       <c r="D83" t="n">
+        <v>0.6100531314046035</v>
+      </c>
+      <c r="E83" t="n">
         <v>0.2218633747293259</v>
       </c>
-      <c r="E83" t="n">
+      <c r="F83" t="n">
+        <v>0.3617021276595729</v>
+      </c>
+      <c r="G83" t="n">
         <v>0.03968253968253971</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.004746905709031492</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.005411719215578936</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.4961603152117828</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.9657500705502127</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -1868,13 +4378,43 @@
         <v>0.02387812491876539</v>
       </c>
       <c r="C84" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.6421626168901817</v>
       </c>
       <c r="D84" t="n">
+        <v>0.6851798002692073</v>
+      </c>
+      <c r="E84" t="n">
         <v>0.2757624998925996</v>
       </c>
-      <c r="E84" t="n">
+      <c r="F84" t="n">
+        <v>0.3829787234042534</v>
+      </c>
+      <c r="G84" t="n">
         <v>0.03174603174603174</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.00559278613967436</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.006161371796790141</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.3415997683456339</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.9603119476597124</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -1885,13 +4425,43 @@
         <v>0.02398967064981767</v>
       </c>
       <c r="C85" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.6421022464567907</v>
       </c>
       <c r="D85" t="n">
+        <v>0.6963872542023263</v>
+      </c>
+      <c r="E85" t="n">
         <v>0.2695122832742329</v>
       </c>
-      <c r="E85" t="n">
+      <c r="F85" t="n">
+        <v>0.3829787234042534</v>
+      </c>
+      <c r="G85" t="n">
         <v>0.03174603174603174</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.005724882408417623</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.006277884041165915</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.3600564217250121</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.9594258489978714</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -1902,13 +4472,43 @@
         <v>0.02386254374232581</v>
       </c>
       <c r="C86" t="n">
-        <v>0.5705114184071691</v>
+        <v>0.5930706764182582</v>
       </c>
       <c r="D86" t="n">
+        <v>0.4973926651664526</v>
+      </c>
+      <c r="E86" t="n">
         <v>0.325516057960281</v>
       </c>
-      <c r="E86" t="n">
+      <c r="F86" t="n">
+        <v>0.4042553191489358</v>
+      </c>
+      <c r="G86" t="n">
         <v>0.02380952380952384</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.005805485471596398</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.006316831958327507</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.3647174717258458</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.9580397579119233</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -1919,13 +4519,43 @@
         <v>0.02293865681170221</v>
       </c>
       <c r="C87" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.5930431813100867</v>
       </c>
       <c r="D87" t="n">
+        <v>0.397784835493694</v>
+      </c>
+      <c r="E87" t="n">
         <v>0.2541335743356857</v>
       </c>
-      <c r="E87" t="n">
+      <c r="F87" t="n">
+        <v>0.4255319148936163</v>
+      </c>
+      <c r="G87" t="n">
         <v>0.01587301587301587</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.004695373808465911</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.005331722597617305</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.5038792710841919</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.9650809838276905</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -1936,13 +4566,43 @@
         <v>0.02229483679197751</v>
       </c>
       <c r="C88" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.5930156388540736</v>
       </c>
       <c r="D88" t="n">
+        <v>0.3282467760522778</v>
+      </c>
+      <c r="E88" t="n">
         <v>0.2139938920196396</v>
       </c>
-      <c r="E88" t="n">
+      <c r="F88" t="n">
+        <v>0.4468085106382969</v>
+      </c>
+      <c r="G88" t="n">
         <v>0.007936507936507908</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.003921006981039884</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.004644432242378494</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.5913563343395413</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.9699815938231239</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -1953,12 +4613,42 @@
         <v>0.02269068258951913</v>
       </c>
       <c r="C89" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.6829205677630491</v>
       </c>
       <c r="D89" t="n">
+        <v>0.3611072936876581</v>
+      </c>
+      <c r="E89" t="n">
         <v>0.1459267060165291</v>
       </c>
-      <c r="E89" t="n">
+      <c r="F89" t="n">
+        <v>0.4680851063829774</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.003680165691009964</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.00443039785011355</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.5446092017417534</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.9714802479258705</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0</v>
+      </c>
+      <c r="O89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1970,12 +4660,42 @@
         <v>0.02399239115385106</v>
       </c>
       <c r="C90" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.682491114580134</v>
       </c>
       <c r="D90" t="n">
+        <v>0.5008611412626738</v>
+      </c>
+      <c r="E90" t="n">
         <v>0.1927669163573888</v>
       </c>
-      <c r="E90" t="n">
+      <c r="F90" t="n">
+        <v>0.5106382978723403</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.005241950194432117</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.005815347176723087</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.4097728513891348</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.9614828871109893</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0</v>
+      </c>
+      <c r="O90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1987,12 +4707,42 @@
         <v>0.02397166953845789</v>
       </c>
       <c r="C91" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.6820659271828364</v>
       </c>
       <c r="D91" t="n">
+        <v>0.4986433027350474</v>
+      </c>
+      <c r="E91" t="n">
         <v>0.2380415520676574</v>
       </c>
-      <c r="E91" t="n">
+      <c r="F91" t="n">
+        <v>0.5319148936170208</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.005218486776713484</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.005794140301026152</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.38649153885636</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.9615954132079207</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0</v>
+      </c>
+      <c r="O91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2004,13 +4754,43 @@
         <v>0.02435445508663313</v>
       </c>
       <c r="C92" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.6558456367485493</v>
       </c>
       <c r="D92" t="n">
+        <v>0.4615185935317079</v>
+      </c>
+      <c r="E92" t="n">
         <v>0.3461933350962308</v>
       </c>
-      <c r="E92" t="n">
+      <c r="F92" t="n">
+        <v>0.5744680851063819</v>
+      </c>
+      <c r="G92" t="n">
         <v>0.007936507936507908</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.004734730084839567</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.005364643883336422</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.4792752537025191</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.9646437228756978</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -2021,13 +4801,43 @@
         <v>0.02494614792472317</v>
       </c>
       <c r="C93" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.6556564491321318</v>
       </c>
       <c r="D93" t="n">
+        <v>0.5257224927755995</v>
+      </c>
+      <c r="E93" t="n">
         <v>0.2287144198236981</v>
       </c>
-      <c r="E93" t="n">
+      <c r="F93" t="n">
+        <v>0.5957446808510625</v>
+      </c>
+      <c r="G93" t="n">
         <v>0.01587301587301587</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.005452881967081491</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.006001277774374289</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.4312301472581591</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.9600269790545484</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0</v>
+      </c>
+      <c r="O93" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -2038,13 +4848,43 @@
         <v>0.02474980774356573</v>
       </c>
       <c r="C94" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.6554684970313657</v>
       </c>
       <c r="D94" t="n">
+        <v>0.5053173423510846</v>
+      </c>
+      <c r="E94" t="n">
         <v>0.1246275674714001</v>
       </c>
-      <c r="E94" t="n">
+      <c r="F94" t="n">
+        <v>0.6170212765957412</v>
+      </c>
+      <c r="G94" t="n">
         <v>0.02380952380952384</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.005226292927425207</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.005799903305939571</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.4565441355295847</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.9614356136961584</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0</v>
+      </c>
+      <c r="O94" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -2055,13 +4895,43 @@
         <v>0.02236041738440882</v>
       </c>
       <c r="C95" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.5501105413870387</v>
       </c>
       <c r="D95" t="n">
+        <v>0.3245503909089225</v>
+      </c>
+      <c r="E95" t="n">
         <v>0.224758367953367</v>
       </c>
-      <c r="E95" t="n">
+      <c r="F95" t="n">
+        <v>0.6382978723404253</v>
+      </c>
+      <c r="G95" t="n">
         <v>0.02380952380952384</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.004380172448891647</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.005048990525306692</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.5099701165816628</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.9667957063588241</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0</v>
+      </c>
+      <c r="O95" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -2072,13 +4942,43 @@
         <v>0.0232051733097731</v>
       </c>
       <c r="C96" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.5500350972128391</v>
       </c>
       <c r="D96" t="n">
+        <v>0.4145805737142474</v>
+      </c>
+      <c r="E96" t="n">
         <v>0.2862089846457196</v>
       </c>
-      <c r="E96" t="n">
+      <c r="F96" t="n">
+        <v>0.6595744680851041</v>
+      </c>
+      <c r="G96" t="n">
         <v>0.03174603174603174</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.005388847220439375</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.00594333661471222</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.4682875810744797</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.9603266245918292</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0</v>
+      </c>
+      <c r="O96" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -2089,13 +4989,43 @@
         <v>0.02210727930674584</v>
       </c>
       <c r="C97" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.5499594287007366</v>
       </c>
       <c r="D97" t="n">
+        <v>0.2960556244592583</v>
+      </c>
+      <c r="E97" t="n">
         <v>0.2864580112367164</v>
       </c>
-      <c r="E97" t="n">
+      <c r="F97" t="n">
+        <v>0.6595744680851041</v>
+      </c>
+      <c r="G97" t="n">
         <v>0.03174603174603174</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.004068838788934345</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.004772078736719801</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.4666626050633214</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.9687096497014823</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0</v>
+      </c>
+      <c r="O97" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -2106,13 +5036,43 @@
         <v>0.0210618399102242</v>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>0.5764694182765924</v>
       </c>
       <c r="D98" t="n">
+        <v>0.5353930308948539</v>
+      </c>
+      <c r="E98" t="n">
         <v>0.3164775389782535</v>
       </c>
-      <c r="E98" t="n">
+      <c r="F98" t="n">
+        <v>0.6382978723404253</v>
+      </c>
+      <c r="G98" t="n">
         <v>0.02380952380952384</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.00369784373248402</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.00149411453700444</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.4562957516250217</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.9664542322535288</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0</v>
+      </c>
+      <c r="O98" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -2123,13 +5083,43 @@
         <v>0.02146847850313144</v>
       </c>
       <c r="C99" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.5763348718708002</v>
       </c>
       <c r="D99" t="n">
+        <v>0.5781935668461718</v>
+      </c>
+      <c r="E99" t="n">
         <v>0.2465466543451684</v>
       </c>
-      <c r="E99" t="n">
+      <c r="F99" t="n">
+        <v>0.5957446808510625</v>
+      </c>
+      <c r="G99" t="n">
         <v>0.02380952380952384</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.004183591167020066</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.001921179453924235</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.439059555797408</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.9633423732977117</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.5468246402469472</v>
+      </c>
+      <c r="O99" t="n">
+        <v>0.5900664084117321</v>
       </c>
     </row>
     <row r="100">
@@ -2140,13 +5130,43 @@
         <v>0.02330823089298248</v>
       </c>
       <c r="C100" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.5761998185674603</v>
       </c>
       <c r="D100" t="n">
+        <v>0.7748570960460377</v>
+      </c>
+      <c r="E100" t="n">
         <v>0.2241515657039103</v>
       </c>
-      <c r="E100" t="n">
+      <c r="F100" t="n">
+        <v>0.5319148936170208</v>
+      </c>
+      <c r="G100" t="n">
         <v>0.007936507936507908</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.006387262530272766</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.003872047768980055</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.2262743642876197</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.9492734477251853</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0</v>
+      </c>
+      <c r="N100" t="n">
+        <v>1</v>
+      </c>
+      <c r="O100" t="n">
+        <v>0.8602656336469285</v>
       </c>
     </row>
     <row r="101">
@@ -2157,13 +5177,43 @@
         <v>0.006305210127425499</v>
       </c>
       <c r="C101" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.02827534684112576</v>
       </c>
       <c r="D101" t="n">
+        <v>0.528447740211637</v>
+      </c>
+      <c r="E101" t="n">
         <v>1</v>
       </c>
-      <c r="E101" t="n">
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
         <v>0.9761904761904761</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.008420618623213558</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.005671797769293022</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.9362916290410209</v>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.8486691785071194</v>
+      </c>
+      <c r="O101" t="n">
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="102">
@@ -2174,13 +5224,43 @@
         <v>0.002119439593425882</v>
       </c>
       <c r="C102" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.01452056239253852</v>
       </c>
       <c r="D102" t="n">
+        <v>0.1505207302608298</v>
+      </c>
+      <c r="E102" t="n">
         <v>0.2127585584158884</v>
       </c>
-      <c r="E102" t="n">
+      <c r="F102" t="n">
+        <v>0.1914893617021267</v>
+      </c>
+      <c r="G102" t="n">
         <v>1</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.004231970359863464</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.001952413484279002</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.3522132825430839</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0.9629923664167638</v>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0</v>
+      </c>
+      <c r="O102" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -2191,13 +5271,43 @@
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>0.2946441955268063</v>
+        <v>0</v>
       </c>
       <c r="D103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" t="n">
         <v>0.1925014385925214</v>
       </c>
-      <c r="E103" t="n">
+      <c r="F103" t="n">
+        <v>0.2978723404255312</v>
+      </c>
+      <c r="G103" t="n">
         <v>0.8968253968253967</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.002582701995083072</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.0004854860777144974</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.6138188260274466</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0.9734976021779451</v>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0.4614977226988667</v>
+      </c>
+      <c r="O103" t="n">
+        <v>0.5208448625714812</v>
       </c>
     </row>
     <row r="104">
@@ -2208,13 +5318,43 @@
         <v>0.03869967222777397</v>
       </c>
       <c r="C104" t="n">
-        <v>0.2946441955268063</v>
+        <v>1</v>
       </c>
       <c r="D104" t="n">
+        <v>0.5084701337833483</v>
+      </c>
+      <c r="E104" t="n">
         <v>0.2007733014928663</v>
       </c>
-      <c r="E104" t="n">
+      <c r="F104" t="n">
+        <v>0.5744680851063819</v>
+      </c>
+      <c r="G104" t="n">
         <v>0.8809523809523809</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.002985651637434401</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.0008388886502446297</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.6223428498919439</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0.9709144307873941</v>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0.5115983476326661</v>
+      </c>
+      <c r="O104" t="n">
+        <v>0.5867459878251244</v>
       </c>
     </row>
     <row r="105">
@@ -2225,13 +5365,43 @@
         <v>0.0380837264682761</v>
       </c>
       <c r="C105" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.9921781394552676</v>
       </c>
       <c r="D105" t="n">
+        <v>0.5011151943047151</v>
+      </c>
+      <c r="E105" t="n">
         <v>0.1667169162619197</v>
       </c>
-      <c r="E105" t="n">
+      <c r="F105" t="n">
+        <v>0.5957446808510625</v>
+      </c>
+      <c r="G105" t="n">
         <v>0.7619047619047619</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.002912415248989521</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.0007698564080279918</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.568632768710604</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0.9713683439790582</v>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0.5458108251244572</v>
+      </c>
+      <c r="O105" t="n">
+        <v>0.5935712968087068</v>
       </c>
     </row>
     <row r="106">
@@ -2242,13 +5412,43 @@
         <v>0.03823937458079001</v>
       </c>
       <c r="C106" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.9846769334459478</v>
       </c>
       <c r="D106" t="n">
+        <v>0.5729712900072063</v>
+      </c>
+      <c r="E106" t="n">
         <v>0.1730885456097704</v>
       </c>
-      <c r="E106" t="n">
+      <c r="F106" t="n">
+        <v>0.1276595744680833</v>
+      </c>
+      <c r="G106" t="n">
         <v>0.4047619047619048</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.003723561069931619</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.001485250782271231</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.4905468607131919</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0.9661813748160424</v>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0.5611693676517319</v>
+      </c>
+      <c r="O106" t="n">
+        <v>0.5935712968087068</v>
       </c>
     </row>
     <row r="107">
@@ -2259,13 +5459,43 @@
         <v>0.02568822326874336</v>
       </c>
       <c r="C107" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.8026821984203838</v>
       </c>
       <c r="D107" t="n">
-        <v>0</v>
+        <v>0.483989373637265</v>
       </c>
       <c r="E107" t="n">
+        <v>0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.1702127659574462</v>
+      </c>
+      <c r="G107" t="n">
         <v>0.3412698412698413</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.004707089392241513</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.002353507904154617</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.4091997879257664</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0.9598946761274347</v>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0.6226943271747848</v>
+      </c>
+      <c r="O107" t="n">
+        <v>0.595554325770153</v>
       </c>
     </row>
     <row r="108">
@@ -2276,13 +5506,43 @@
         <v>0.02575203773907354</v>
       </c>
       <c r="C108" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.7998083918794542</v>
       </c>
       <c r="D108" t="n">
+        <v>0.492129518309305</v>
+      </c>
+      <c r="E108" t="n">
         <v>0.1266979978598054</v>
       </c>
-      <c r="E108" t="n">
+      <c r="F108" t="n">
+        <v>0.2553191489361684</v>
+      </c>
+      <c r="G108" t="n">
         <v>0.3412698412698413</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.004805220838362039</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.002436347806506037</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.4466437111373774</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0.9592553680439437</v>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0.7553981872380348</v>
+      </c>
+      <c r="O108" t="n">
+        <v>0.6696642685851318</v>
       </c>
     </row>
     <row r="109">
@@ -2293,13 +5553,43 @@
         <v>0.02344692210609836</v>
       </c>
       <c r="C109" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.7970068206977026</v>
       </c>
       <c r="D109" t="n">
+        <v>0.2459246004320129</v>
+      </c>
+      <c r="E109" t="n">
         <v>0.2064050817549574</v>
       </c>
-      <c r="E109" t="n">
+      <c r="F109" t="n">
+        <v>0.3191489361702118</v>
+      </c>
+      <c r="G109" t="n">
         <v>0.3333333333333334</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.002063371128195038</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.5321018246348093</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0.9767310302830582</v>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0.5982417116830845</v>
+      </c>
+      <c r="O109" t="n">
+        <v>0.6457295701900018</v>
       </c>
     </row>
     <row r="110">
@@ -2310,13 +5600,43 @@
         <v>0.02507400549776299</v>
       </c>
       <c r="C110" t="n">
-        <v>0.2757236508672864</v>
+        <v>0.7736370523579598</v>
       </c>
       <c r="D110" t="n">
+        <v>0.9549052081393348</v>
+      </c>
+      <c r="E110" t="n">
         <v>0.2238917705120757</v>
       </c>
-      <c r="E110" t="n">
+      <c r="F110" t="n">
+        <v>0.3617021276595729</v>
+      </c>
+      <c r="G110" t="n">
         <v>0.3253968253968254</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.01422242140245459</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.007557964286305643</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.4943928131909315</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0.9747526090468045</v>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0.4929108599270658</v>
+      </c>
+      <c r="O110" t="n">
+        <v>0.5722652647113078</v>
       </c>
     </row>
     <row r="111">
@@ -2327,13 +5647,43 @@
         <v>0.02531050368569593</v>
       </c>
       <c r="C111" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.7725303097408079</v>
       </c>
       <c r="D111" t="n">
+        <v>0.9763685325565701</v>
+      </c>
+      <c r="E111" t="n">
         <v>0.2052862009961516</v>
       </c>
-      <c r="E111" t="n">
+      <c r="F111" t="n">
+        <v>0.3829787234042534</v>
+      </c>
+      <c r="G111" t="n">
         <v>0.3174603174603174</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.01429978251360012</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.007801357272277914</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.5855552089591999</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.9726478689356843</v>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0.4201582762116604</v>
+      </c>
+      <c r="O111" t="n">
+        <v>0.5124515771997785</v>
       </c>
     </row>
     <row r="112">
@@ -2344,13 +5694,43 @@
         <v>0.02386127752539518</v>
       </c>
       <c r="C112" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.7714392042506915</v>
       </c>
       <c r="D112" t="n">
+        <v>0.8169592727846058</v>
+      </c>
+      <c r="E112" t="n">
         <v>0.1965067785466114</v>
       </c>
-      <c r="E112" t="n">
+      <c r="F112" t="n">
+        <v>0.4042553191489358</v>
+      </c>
+      <c r="G112" t="n">
         <v>0.2936507936507937</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.01236526134313634</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.006252519009926143</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.6801679785195373</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0.9834387148438586</v>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0.6077292054413123</v>
+      </c>
+      <c r="O112" t="n">
+        <v>0.5981829920678841</v>
       </c>
     </row>
     <row r="113">
@@ -2361,13 +5741,43 @@
         <v>0.02284735377333824</v>
       </c>
       <c r="C113" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.616786870315105</v>
       </c>
       <c r="D113" t="n">
+        <v>0.4794798758457829</v>
+      </c>
+      <c r="E113" t="n">
         <v>0.2328594903345652</v>
       </c>
-      <c r="E113" t="n">
+      <c r="F113" t="n">
+        <v>0.4468085106382969</v>
+      </c>
+      <c r="G113" t="n">
         <v>0.3015873015873016</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.0125285222430105</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.006557286839455695</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.681290936005489</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0.9809057856832755</v>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0.5039720368605021</v>
+      </c>
+      <c r="O113" t="n">
+        <v>0.5755395683453236</v>
       </c>
     </row>
     <row r="114">
@@ -2378,13 +5788,43 @@
         <v>0.02296360442490924</v>
       </c>
       <c r="C114" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.6161707536481407</v>
       </c>
       <c r="D114" t="n">
+        <v>0.4859165605522584</v>
+      </c>
+      <c r="E114" t="n">
         <v>0.2347850900177701</v>
       </c>
-      <c r="E114" t="n">
+      <c r="F114" t="n">
+        <v>0.4468085106382969</v>
+      </c>
+      <c r="G114" t="n">
         <v>0.2698412698412698</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.01246490290695381</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.006654041926141512</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.7097890436050871</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0.979874732390936</v>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0.4485450996413818</v>
+      </c>
+      <c r="O114" t="n">
+        <v>0.5791828076000737</v>
       </c>
     </row>
     <row r="115">
@@ -2395,13 +5835,43 @@
         <v>0.0226833619287039</v>
       </c>
       <c r="C115" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.6155563941438208</v>
       </c>
       <c r="D115" t="n">
+        <v>0.4499136796339038</v>
+      </c>
+      <c r="E115" t="n">
         <v>0.2481618958261901</v>
       </c>
-      <c r="E115" t="n">
+      <c r="F115" t="n">
+        <v>0.5319148936170208</v>
+      </c>
+      <c r="G115" t="n">
         <v>0.3095238095238094</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.01193385284268314</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.006329798737947831</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.7918698206865462</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0.9818776518647443</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0.5263213642622604</v>
+      </c>
+      <c r="O115" t="n">
+        <v>0.5935712968087068</v>
       </c>
     </row>
     <row r="116">
@@ -2412,13 +5882,43 @@
         <v>0.02521953139828374</v>
       </c>
       <c r="C116" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.5877777412052219</v>
       </c>
       <c r="D116" t="n">
+        <v>0.7347932037873848</v>
+      </c>
+      <c r="E116" t="n">
         <v>0.296749514838863</v>
       </c>
-      <c r="E116" t="n">
+      <c r="F116" t="n">
+        <v>0.4680851063829774</v>
+      </c>
+      <c r="G116" t="n">
         <v>0.2698412698412698</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.01237383527056953</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.006860872080074368</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.5933676549433829</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0.9777341744656977</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0.5882548761481078</v>
+      </c>
+      <c r="O116" t="n">
+        <v>0.5935712968087068</v>
       </c>
     </row>
     <row r="117">
@@ -2429,13 +5929,43 @@
         <v>0.02551253900353373</v>
       </c>
       <c r="C117" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.5877632489735237</v>
       </c>
       <c r="D117" t="n">
+        <v>0.7646579790387142</v>
+      </c>
+      <c r="E117" t="n">
         <v>0.2193570742222242</v>
       </c>
-      <c r="E117" t="n">
+      <c r="F117" t="n">
+        <v>0.4680851063829774</v>
+      </c>
+      <c r="G117" t="n">
         <v>0.2619047619047619</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.01258060840534907</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.007179402476108708</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.5369842896455852</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0.9751247411652975</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0.6431976031594716</v>
+      </c>
+      <c r="O117" t="n">
+        <v>0.5996587345508207</v>
       </c>
     </row>
     <row r="118">
@@ -2446,13 +5976,43 @@
         <v>0.02591523101454341</v>
       </c>
       <c r="C118" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.5877487323048934</v>
       </c>
       <c r="D118" t="n">
+        <v>0.8063460969230118</v>
+      </c>
+      <c r="E118" t="n">
         <v>0.1481762015006003</v>
       </c>
-      <c r="E118" t="n">
+      <c r="F118" t="n">
+        <v>0.3829787234042534</v>
+      </c>
+      <c r="G118" t="n">
         <v>0.2063492063492063</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.0129247071687293</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.007614375043396977</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.5733056891296506</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0.9716828912948247</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0.5418463540484513</v>
+      </c>
+      <c r="O118" t="n">
+        <v>0.5972606530160486</v>
       </c>
     </row>
     <row r="119">
@@ -2463,13 +6023,43 @@
         <v>0.02596383956261531</v>
       </c>
       <c r="C119" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.5910996781078535</v>
       </c>
       <c r="D119" t="n">
+        <v>0.5767189100165384</v>
+      </c>
+      <c r="E119" t="n">
         <v>0.1723084383188471</v>
       </c>
-      <c r="E119" t="n">
+      <c r="F119" t="n">
+        <v>0.3404255319148923</v>
+      </c>
+      <c r="G119" t="n">
         <v>0.1825396825396826</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.01102051757592091</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0.006049979893067218</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.7869501147721993</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0.9826292188753706</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0.5266845219180777</v>
+      </c>
+      <c r="O119" t="n">
+        <v>0.5895591219332226</v>
       </c>
     </row>
     <row r="120">
@@ -2480,13 +6070,43 @@
         <v>0.02567216209947895</v>
       </c>
       <c r="C120" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.5910798783317808</v>
       </c>
       <c r="D120" t="n">
+        <v>0.5472956005621117</v>
+      </c>
+      <c r="E120" t="n">
         <v>0.219887020457074</v>
       </c>
-      <c r="E120" t="n">
+      <c r="F120" t="n">
+        <v>0.2978723404255312</v>
+      </c>
+      <c r="G120" t="n">
         <v>0.1507936507936508</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.01058099928010255</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.005779975980710104</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.7086646182002438</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0.9842700119624287</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0.5928548731217941</v>
+      </c>
+      <c r="O120" t="n">
+        <v>0.5909426305109757</v>
       </c>
     </row>
     <row r="121">
@@ -2497,13 +6117,43 @@
         <v>0.02598643745886943</v>
       </c>
       <c r="C121" t="n">
-        <v>0.2946441955268063</v>
+        <v>0.591060051077259</v>
       </c>
       <c r="D121" t="n">
+        <v>0.5828647870348063</v>
+      </c>
+      <c r="E121" t="n">
         <v>0.2174676615797774</v>
       </c>
-      <c r="E121" t="n">
+      <c r="F121" t="n">
+        <v>0.2978723404255312</v>
+      </c>
+      <c r="G121" t="n">
         <v>0.1507936507936508</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.01087162892679492</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0.006153073368754704</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.6505070675988471</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0.981289234280188</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0.9976697383751721</v>
+      </c>
+      <c r="O121" t="n">
+        <v>0.6674506548607267</v>
       </c>
     </row>
     <row r="122">
@@ -2517,10 +6167,40 @@
         <v>0</v>
       </c>
       <c r="D122" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" t="n">
         <v>0.2991745831442723</v>
       </c>
-      <c r="E122" t="n">
+      <c r="F122" t="n">
+        <v>0.3191489361702118</v>
+      </c>
+      <c r="G122" t="n">
         <v>0.1507936507936508</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0.003079518537742715</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0.005793861330213361</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.6833060359507753</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0.9807111507994541</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0.431854979042777</v>
+      </c>
+      <c r="O122" t="n">
+        <v>0.6444382955174321</v>
       </c>
     </row>
     <row r="123">
@@ -2534,10 +6214,40 @@
         <v>0</v>
       </c>
       <c r="D123" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" t="n">
         <v>0.2202961136213251</v>
       </c>
-      <c r="E123" t="n">
+      <c r="F123" t="n">
+        <v>0.2765957446808507</v>
+      </c>
+      <c r="G123" t="n">
         <v>0.111111111111111</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0.00264210653881396</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0.005382725141633495</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.7548506731960245</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0.9834275684871278</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0.1695643621287092</v>
+      </c>
+      <c r="O123" t="n">
+        <v>0.469147758716104</v>
       </c>
     </row>
     <row r="124">
@@ -2551,10 +6261,40 @@
         <v>0</v>
       </c>
       <c r="D124" t="n">
+        <v>0</v>
+      </c>
+      <c r="E124" t="n">
         <v>0.2130482602121777</v>
       </c>
-      <c r="E124" t="n">
+      <c r="F124" t="n">
+        <v>0.2553191489361684</v>
+      </c>
+      <c r="G124" t="n">
         <v>0.07936507936507936</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.0002950825647959764</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0.003278133317346337</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.9618970566512602</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0.9983337449731385</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0.5210858413908939</v>
+      </c>
+      <c r="O124" t="n">
+        <v>0.5901125253643238</v>
       </c>
     </row>
     <row r="125">
@@ -2568,10 +6308,40 @@
         <v>0</v>
       </c>
       <c r="D125" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" t="n">
         <v>0.1850880366943525</v>
       </c>
-      <c r="E125" t="n">
+      <c r="F125" t="n">
+        <v>0.2978723404255312</v>
+      </c>
+      <c r="G125" t="n">
         <v>0.0714285714285714</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0.005200715389418427</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0.007607235026642878</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.5362716851339961</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0.9669481793166751</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0.5840936946752009</v>
+      </c>
+      <c r="O125" t="n">
+        <v>0.5963383139642131</v>
       </c>
     </row>
     <row r="126">
@@ -2585,10 +6355,40 @@
         <v>0</v>
       </c>
       <c r="D126" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" t="n">
         <v>0.2073657991091229</v>
       </c>
-      <c r="E126" t="n">
+      <c r="F126" t="n">
+        <v>0.3404255319148923</v>
+      </c>
+      <c r="G126" t="n">
         <v>0.05555555555555552</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0.002523061112116175</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0.005210170672496389</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.8373213481418396</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0.983965977254543</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0.6293824806694206</v>
+      </c>
+      <c r="O126" t="n">
+        <v>0.5977679394945581</v>
       </c>
     </row>
     <row r="127">
@@ -2602,10 +6402,40 @@
         <v>0</v>
       </c>
       <c r="D127" t="n">
+        <v>0</v>
+      </c>
+      <c r="E127" t="n">
         <v>0.2311549739183509</v>
       </c>
-      <c r="E127" t="n">
+      <c r="F127" t="n">
+        <v>0.3617021276595729</v>
+      </c>
+      <c r="G127" t="n">
         <v>0.05555555555555552</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0.002950621813231077</v>
+      </c>
+      <c r="J127" t="n">
+        <v>1</v>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0.5346134640700895</v>
+      </c>
+      <c r="O127" t="n">
+        <v>0.5900664084117321</v>
       </c>
     </row>
     <row r="128">
@@ -2619,10 +6449,40 @@
         <v>0</v>
       </c>
       <c r="D128" t="n">
+        <v>0</v>
+      </c>
+      <c r="E128" t="n">
         <v>0.3016369541722478</v>
       </c>
-      <c r="E128" t="n">
+      <c r="F128" t="n">
+        <v>0.3829787234042534</v>
+      </c>
+      <c r="G128" t="n">
         <v>0.03968253968253971</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0.007090198550234169</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0.009218651920644437</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.3707296219929684</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0.9546659025765803</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0.5816575120674263</v>
+      </c>
+      <c r="O128" t="n">
+        <v>0.5914038000368935</v>
       </c>
     </row>
     <row r="129">
@@ -2636,10 +6496,40 @@
         <v>0</v>
       </c>
       <c r="D129" t="n">
+        <v>0</v>
+      </c>
+      <c r="E129" t="n">
         <v>0.2463000449310916</v>
       </c>
-      <c r="E129" t="n">
+      <c r="F129" t="n">
+        <v>0.4468085106382969</v>
+      </c>
+      <c r="G129" t="n">
         <v>0.06349206349206349</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0.004703241002315148</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0.007080578367419366</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.4356150255383813</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0.9698313082519218</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0</v>
+      </c>
+      <c r="M129" t="n">
+        <v>0</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0.5201628156823581</v>
+      </c>
+      <c r="O129" t="n">
+        <v>0.594539752813134</v>
       </c>
     </row>
     <row r="130">
@@ -2653,10 +6543,40 @@
         <v>0</v>
       </c>
       <c r="D130" t="n">
+        <v>0</v>
+      </c>
+      <c r="E130" t="n">
         <v>0.1508022625925179</v>
       </c>
-      <c r="E130" t="n">
+      <c r="F130" t="n">
+        <v>0.3829787234042534</v>
+      </c>
+      <c r="G130" t="n">
         <v>0.007936507936507908</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0.004193000102831915</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0.006607559952216452</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.5617259035703712</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0.9730170184310524</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0</v>
+      </c>
+      <c r="M130" t="n">
+        <v>0</v>
+      </c>
+      <c r="N130" t="n">
+        <v>0.5016417752356742</v>
+      </c>
+      <c r="O130" t="n">
+        <v>0.5938479985242574</v>
       </c>
     </row>
     <row r="131">
@@ -2670,10 +6590,40 @@
         <v>0</v>
       </c>
       <c r="D131" t="n">
+        <v>0</v>
+      </c>
+      <c r="E131" t="n">
         <v>0.2438155987828777</v>
       </c>
-      <c r="E131" t="n">
-        <v>0</v>
+      <c r="F131" t="n">
+        <v>0</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0.003962493992460308</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0.006383025502498954</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.5863861258720136</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0.9744176722955573</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0.5651792334347149</v>
+      </c>
+      <c r="O131" t="n">
+        <v>0.5924644899465042</v>
       </c>
     </row>
     <row r="132">
@@ -2687,10 +6637,40 @@
         <v>0</v>
       </c>
       <c r="D132" t="n">
+        <v>0</v>
+      </c>
+      <c r="E132" t="n">
         <v>0.2838660093332968</v>
       </c>
-      <c r="E132" t="n">
-        <v>0</v>
+      <c r="F132" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0.005793803668874102</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0.007987716833182768</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.4252858022654106</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0.9626555518560601</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0.5562062130222283</v>
+      </c>
+      <c r="O132" t="n">
+        <v>0.5956465596753365</v>
       </c>
     </row>
     <row r="133">
@@ -2708,6 +6688,36 @@
       </c>
       <c r="E133" t="n">
         <v>0</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0.006078596847067051</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0.008220945616177675</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0.9607671626147806</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0</v>
+      </c>
+      <c r="M133" t="n">
+        <v>0</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0.5772390939216487</v>
+      </c>
+      <c r="O133" t="n">
+        <v>0.5936635307138903</v>
       </c>
     </row>
   </sheetData>
